--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="25" r:id="rId2"/>
     <sheet name="September" sheetId="24" r:id="rId3"/>
     <sheet name="October" sheetId="23" r:id="rId4"/>
-    <sheet name="November &amp; December" sheetId="22" r:id="rId5"/>
+    <sheet name="November" sheetId="22" r:id="rId5"/>
     <sheet name="Overall Attendance" sheetId="11" r:id="rId6"/>
   </sheets>
   <externalReferences>
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">August!$B$1:$AB$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'November &amp; December'!$A$1:$P$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">November!$A$1:$P$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">October!$A$1:$V$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Overall Attendance'!$A$1:$I$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">September!$A$1:$P$44</definedName>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="254">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -1016,9 +1016,6 @@
     <t>September 2023</t>
   </si>
   <si>
-    <t>November/December 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">2nd, Fall-2023 </t>
   </si>
   <si>
@@ -1035,6 +1032,15 @@
   </si>
   <si>
     <t>Circuit Analysis (Th+Lab)</t>
+  </si>
+  <si>
+    <t>November 2023</t>
+  </si>
+  <si>
+    <t>01 (th)</t>
+  </si>
+  <si>
+    <t>09:00 AM-01:00 PM</t>
   </si>
 </sst>
 </file>
@@ -2145,16 +2151,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2191,6 +2187,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2202,6 +2201,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2254,35 +2275,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2307,6 +2304,15 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2567,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2631,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2689,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2747,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2805,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,246 +4132,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="D1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111" t="s">
+      <c r="D4" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="127"/>
+      <c r="F4" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="125" t="s">
+      <c r="E5" s="127"/>
+      <c r="F5" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111" t="s">
+      <c r="E6" s="127"/>
+      <c r="F6" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="126" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
@@ -4395,10 +4401,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="112" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4440,16 +4446,16 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="127" t="s">
+      <c r="AA10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="122" t="s">
+      <c r="AB10" s="118" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="114"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4475,12 +4481,12 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="123"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="119"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="114"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4527,35 +4533,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="115"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="121"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="117"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -7907,26 +7913,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="109" t="s">
+      <c r="I78" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="109"/>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="109"/>
-      <c r="V78" s="109"/>
-      <c r="W78" s="109"/>
-      <c r="X78" s="109"/>
-      <c r="Y78" s="109"/>
-      <c r="Z78" s="109"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="126"/>
+      <c r="Q78" s="126"/>
+      <c r="R78" s="126"/>
+      <c r="S78" s="126"/>
+      <c r="T78" s="126"/>
+      <c r="U78" s="126"/>
+      <c r="V78" s="126"/>
+      <c r="W78" s="126"/>
+      <c r="X78" s="126"/>
+      <c r="Y78" s="126"/>
+      <c r="Z78" s="126"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8016,6 +8022,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8027,15 +8042,6 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8072,103 +8078,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="149" t="e">
+      <c r="C3" s="132" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="146" t="str">
+      <c r="C4" s="129" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="150">
+      <c r="I4" s="133">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="146" t="str">
+      <c r="C5" s="129" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8185,92 +8191,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="129" t="str">
+      <c r="H6" s="134" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="130" t="str">
+      <c r="C7" s="135" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="131">
+      <c r="G7" s="136">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="140" t="s">
+      <c r="C9" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="142" t="s">
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="145"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="150"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="135"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="141"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12261,12 +12267,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12277,6 +12277,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12388,46 +12394,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12460,22 +12466,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12496,22 +12502,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="122" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -12532,62 +12538,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -12606,10 +12612,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="112" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12628,21 +12634,21 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="118" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -12654,12 +12660,12 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="123"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="119"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12685,24 +12691,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13614,21 +13620,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="109"/>
+      <c r="D43" s="126"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="109" t="s">
+      <c r="H43" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13648,11 +13654,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13662,12 +13669,11 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13684,8 +13690,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41:AA55"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13707,58 +13713,58 @@
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
     </row>
     <row r="2" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
     </row>
     <row r="3" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -13792,28 +13798,28 @@
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
       <c r="U4" s="88"/>
       <c r="V4" s="88"/>
       <c r="W4" s="88"/>
@@ -13829,28 +13835,28 @@
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
       <c r="W5" s="89"/>
@@ -13866,80 +13872,80 @@
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
@@ -13986,10 +13992,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="151" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14022,16 +14028,16 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="151" t="s">
+      <c r="U11" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="151" t="s">
+      <c r="V11" s="152" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14052,12 +14058,12 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
     </row>
     <row r="13" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14097,28 +14103,28 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
       <c r="U14" s="9"/>
       <c r="V14" s="108"/>
     </row>
@@ -15430,10 +15436,10 @@
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="109"/>
+      <c r="D44" s="126"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -15503,11 +15509,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:T8"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:T14"/>
@@ -15517,11 +15523,11 @@
     <mergeCell ref="E6:T6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:T7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:T4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -15538,7 +15544,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -15547,7 +15553,7 @@
     <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.09765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="6" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.3984375" style="4" customWidth="1"/>
@@ -15565,46 +15571,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -15637,22 +15643,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -15673,22 +15679,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -15709,56 +15715,80 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -15777,16 +15807,18 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="112" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -15797,20 +15829,22 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="118" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>253</v>
+      </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -15821,16 +15855,18 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="123"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="119"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="20">
+        <v>4</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -15842,32 +15878,32 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="21">
-        <v>0</v>
-      </c>
-      <c r="P12" s="27" t="e">
+        <v>4</v>
+      </c>
+      <c r="P12" s="27">
         <f>(O12/$O$12)*100</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -15879,7 +15915,9 @@
       <c r="C14" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="75">
+        <v>4</v>
+      </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="13"/>
@@ -15892,11 +15930,11 @@
       <c r="N14" s="15"/>
       <c r="O14" s="21">
         <f>SUM(D14:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P14" s="22">
         <f>(O14/$O$12)*$P$12</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15909,7 +15947,9 @@
       <c r="C15" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="75">
+        <v>4</v>
+      </c>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="13"/>
@@ -15922,11 +15962,11 @@
       <c r="N15" s="13"/>
       <c r="O15" s="21">
         <f t="shared" ref="O15:O52" si="0">SUM(D15:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P15" s="22">
         <f t="shared" ref="P15:P76" si="1">(O15/$O$12)*$P$12</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15939,7 +15979,9 @@
       <c r="C16" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="75">
+        <v>4</v>
+      </c>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="13"/>
@@ -15952,11 +15994,11 @@
       <c r="N16" s="13"/>
       <c r="O16" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P16" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15969,7 +16011,9 @@
       <c r="C17" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="75">
+        <v>4</v>
+      </c>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
       <c r="G17" s="13"/>
@@ -15982,11 +16026,11 @@
       <c r="N17" s="13"/>
       <c r="O17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P17" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15999,7 +16043,9 @@
       <c r="C18" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="75">
+        <v>4</v>
+      </c>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="13"/>
@@ -16012,11 +16058,11 @@
       <c r="N18" s="13"/>
       <c r="O18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P18" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16029,7 +16075,9 @@
       <c r="C19" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="75">
+        <v>4</v>
+      </c>
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
       <c r="G19" s="13"/>
@@ -16042,11 +16090,11 @@
       <c r="N19" s="13"/>
       <c r="O19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P19" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16059,7 +16107,9 @@
       <c r="C20" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="75">
+        <v>4</v>
+      </c>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
       <c r="G20" s="13"/>
@@ -16072,11 +16122,11 @@
       <c r="N20" s="13"/>
       <c r="O20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P20" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16089,7 +16139,9 @@
       <c r="C21" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
       <c r="G21" s="13"/>
@@ -16102,11 +16154,11 @@
       <c r="N21" s="13"/>
       <c r="O21" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P21" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16119,7 +16171,9 @@
       <c r="C22" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="75">
+        <v>4</v>
+      </c>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
       <c r="G22" s="13"/>
@@ -16132,11 +16186,11 @@
       <c r="N22" s="13"/>
       <c r="O22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P22" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16149,7 +16203,9 @@
       <c r="C23" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="75">
+        <v>4</v>
+      </c>
       <c r="E23" s="75"/>
       <c r="F23" s="75"/>
       <c r="G23" s="13"/>
@@ -16162,11 +16218,11 @@
       <c r="N23" s="13"/>
       <c r="O23" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P23" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16179,7 +16235,9 @@
       <c r="C24" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="75">
+        <v>4</v>
+      </c>
       <c r="E24" s="75"/>
       <c r="F24" s="75"/>
       <c r="G24" s="13"/>
@@ -16192,11 +16250,11 @@
       <c r="N24" s="13"/>
       <c r="O24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P24" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16209,7 +16267,9 @@
       <c r="C25" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="75">
+        <v>4</v>
+      </c>
       <c r="E25" s="75"/>
       <c r="F25" s="75"/>
       <c r="G25" s="13"/>
@@ -16222,11 +16282,11 @@
       <c r="N25" s="13"/>
       <c r="O25" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P25" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16239,7 +16299,9 @@
       <c r="C26" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="75">
+        <v>4</v>
+      </c>
       <c r="E26" s="75"/>
       <c r="F26" s="75"/>
       <c r="G26" s="13"/>
@@ -16252,11 +16314,11 @@
       <c r="N26" s="13"/>
       <c r="O26" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P26" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16269,7 +16331,9 @@
       <c r="C27" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="75">
+        <v>4</v>
+      </c>
       <c r="E27" s="75"/>
       <c r="F27" s="75"/>
       <c r="G27" s="13"/>
@@ -16282,11 +16346,11 @@
       <c r="N27" s="13"/>
       <c r="O27" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P27" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16299,7 +16363,9 @@
       <c r="C28" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="75">
+        <v>4</v>
+      </c>
       <c r="E28" s="75"/>
       <c r="F28" s="75"/>
       <c r="G28" s="13"/>
@@ -16312,11 +16378,11 @@
       <c r="N28" s="13"/>
       <c r="O28" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P28" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16329,7 +16395,9 @@
       <c r="C29" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="75">
+        <v>4</v>
+      </c>
       <c r="E29" s="75"/>
       <c r="F29" s="75"/>
       <c r="G29" s="13"/>
@@ -16342,11 +16410,11 @@
       <c r="N29" s="13"/>
       <c r="O29" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P29" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16359,7 +16427,9 @@
       <c r="C30" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="75">
+        <v>4</v>
+      </c>
       <c r="E30" s="75"/>
       <c r="F30" s="75"/>
       <c r="G30" s="13"/>
@@ -16372,11 +16442,11 @@
       <c r="N30" s="13"/>
       <c r="O30" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P30" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16389,7 +16459,9 @@
       <c r="C31" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="75">
+        <v>4</v>
+      </c>
       <c r="E31" s="75"/>
       <c r="F31" s="75"/>
       <c r="G31" s="13"/>
@@ -16402,11 +16474,11 @@
       <c r="N31" s="13"/>
       <c r="O31" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P31" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16419,7 +16491,9 @@
       <c r="C32" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="75">
+        <v>4</v>
+      </c>
       <c r="E32" s="75"/>
       <c r="F32" s="75"/>
       <c r="G32" s="13"/>
@@ -16432,11 +16506,11 @@
       <c r="N32" s="13"/>
       <c r="O32" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P32" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16449,7 +16523,9 @@
       <c r="C33" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="75">
+        <v>4</v>
+      </c>
       <c r="E33" s="75"/>
       <c r="F33" s="75"/>
       <c r="G33" s="13"/>
@@ -16462,11 +16538,11 @@
       <c r="N33" s="13"/>
       <c r="O33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P33" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16479,7 +16555,9 @@
       <c r="C34" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="75">
+        <v>4</v>
+      </c>
       <c r="E34" s="75"/>
       <c r="F34" s="75"/>
       <c r="G34" s="13"/>
@@ -16492,11 +16570,11 @@
       <c r="N34" s="13"/>
       <c r="O34" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P34" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16509,7 +16587,9 @@
       <c r="C35" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="75">
+        <v>4</v>
+      </c>
       <c r="E35" s="75"/>
       <c r="F35" s="75"/>
       <c r="G35" s="13"/>
@@ -16522,11 +16602,11 @@
       <c r="N35" s="13"/>
       <c r="O35" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P35" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16539,7 +16619,9 @@
       <c r="C36" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="75">
+        <v>4</v>
+      </c>
       <c r="E36" s="75"/>
       <c r="F36" s="75"/>
       <c r="G36" s="13"/>
@@ -16552,11 +16634,11 @@
       <c r="N36" s="13"/>
       <c r="O36" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P36" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16569,7 +16651,9 @@
       <c r="C37" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="75">
+        <v>4</v>
+      </c>
       <c r="E37" s="75"/>
       <c r="F37" s="75"/>
       <c r="G37" s="13"/>
@@ -16582,11 +16666,11 @@
       <c r="N37" s="13"/>
       <c r="O37" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P37" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16599,7 +16683,9 @@
       <c r="C38" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="75">
+        <v>0</v>
+      </c>
       <c r="E38" s="75"/>
       <c r="F38" s="75"/>
       <c r="G38" s="13"/>
@@ -16614,9 +16700,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P38" s="22" t="e">
+      <c r="P38" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16629,7 +16715,9 @@
       <c r="C39" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="75">
+        <v>4</v>
+      </c>
       <c r="E39" s="75"/>
       <c r="F39" s="75"/>
       <c r="G39" s="13"/>
@@ -16642,11 +16730,11 @@
       <c r="N39" s="13"/>
       <c r="O39" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P39" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16659,7 +16747,9 @@
       <c r="C40" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="D40" s="75"/>
+      <c r="D40" s="75">
+        <v>4</v>
+      </c>
       <c r="E40" s="75"/>
       <c r="F40" s="75"/>
       <c r="G40" s="13"/>
@@ -16672,11 +16762,11 @@
       <c r="N40" s="13"/>
       <c r="O40" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P40" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16689,7 +16779,9 @@
       <c r="C41" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="75">
+        <v>4</v>
+      </c>
       <c r="E41" s="75"/>
       <c r="F41" s="75"/>
       <c r="G41" s="13"/>
@@ -16702,11 +16794,11 @@
       <c r="N41" s="13"/>
       <c r="O41" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="P41" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16730,9 +16822,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P42" s="22" t="e">
+      <c r="P42" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16756,9 +16848,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P43" s="22" t="e">
+      <c r="P43" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16782,9 +16874,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P44" s="22" t="e">
+      <c r="P44" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16808,9 +16900,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P45" s="22" t="e">
+      <c r="P45" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16834,9 +16926,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P46" s="22" t="e">
+      <c r="P46" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16860,9 +16952,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P47" s="22" t="e">
+      <c r="P47" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16886,9 +16978,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P48" s="22" t="e">
+      <c r="P48" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16912,9 +17004,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P49" s="22" t="e">
+      <c r="P49" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16938,9 +17030,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P50" s="22" t="e">
+      <c r="P50" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16964,9 +17056,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P51" s="22" t="e">
+      <c r="P51" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16990,9 +17082,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P52" s="22" t="e">
+      <c r="P52" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17016,9 +17108,9 @@
         <f t="shared" ref="O53:O76" si="2">SUM(D53:N53)</f>
         <v>0</v>
       </c>
-      <c r="P53" s="22" t="e">
+      <c r="P53" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17042,9 +17134,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P54" s="22" t="e">
+      <c r="P54" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17068,9 +17160,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P55" s="22" t="e">
+      <c r="P55" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17094,9 +17186,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P56" s="22" t="e">
+      <c r="P56" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17120,9 +17212,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P57" s="22" t="e">
+      <c r="P57" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17146,9 +17238,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P58" s="22" t="e">
+      <c r="P58" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17172,9 +17264,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P59" s="22" t="e">
+      <c r="P59" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17198,9 +17290,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P60" s="22" t="e">
+      <c r="P60" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17224,9 +17316,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P61" s="22" t="e">
+      <c r="P61" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17250,9 +17342,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P62" s="22" t="e">
+      <c r="P62" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17276,9 +17368,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P63" s="22" t="e">
+      <c r="P63" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17302,9 +17394,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P64" s="22" t="e">
+      <c r="P64" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17328,9 +17420,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P65" s="22" t="e">
+      <c r="P65" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17354,9 +17446,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P66" s="22" t="e">
+      <c r="P66" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17380,9 +17472,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P67" s="22" t="e">
+      <c r="P67" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17406,9 +17498,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P68" s="22" t="e">
+      <c r="P68" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17432,9 +17524,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P69" s="22" t="e">
+      <c r="P69" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17458,9 +17550,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P70" s="22" t="e">
+      <c r="P70" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17484,9 +17576,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P71" s="22" t="e">
+      <c r="P71" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17510,9 +17602,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P72" s="22" t="e">
+      <c r="P72" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17536,9 +17628,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P73" s="22" t="e">
+      <c r="P73" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17562,9 +17654,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P74" s="22" t="e">
+      <c r="P74" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17588,9 +17680,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P75" s="22" t="e">
+      <c r="P75" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -17614,9 +17706,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P76" s="22" t="e">
+      <c r="P76" s="22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17633,10 +17725,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="109" t="s">
+      <c r="C78" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="109"/>
+      <c r="D78" s="126"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -17644,10 +17736,10 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="109" t="s">
+      <c r="M78" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="109"/>
+      <c r="N78" s="126"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -17682,26 +17774,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E8:T8"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:N5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -17743,26 +17835,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17770,13 +17862,13 @@
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -17784,13 +17876,13 @@
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="D4" s="121" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -17798,13 +17890,13 @@
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="D5" s="121" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -17812,13 +17904,13 @@
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="D6" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -17826,13 +17918,13 @@
       <c r="C7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
+      <c r="D7" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -17845,51 +17937,51 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="156" t="s">
+      <c r="B9" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="153" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="163" t="str">
+      <c r="D9" s="160" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="163" t="str">
+      <c r="E9" s="160" t="str">
         <f>October!E5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="163" t="str">
-        <f>'November &amp; December'!E5</f>
-        <v>November/December 2023</v>
-      </c>
-      <c r="G9" s="159" t="s">
+      <c r="F9" s="160" t="str">
+        <f>November!E5</f>
+        <v>November 2023</v>
+      </c>
+      <c r="G9" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="162" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="155"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="90" t="s">
         <v>10</v>
       </c>
@@ -17902,18 +17994,18 @@
         <v>20</v>
       </c>
       <c r="F11" s="91">
-        <f>'November &amp; December'!O12</f>
-        <v>0</v>
+        <f>November!O12</f>
+        <v>4</v>
       </c>
       <c r="G11" s="92">
         <f t="shared" ref="G11:G39" si="0">SUM(D11:F11)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H11" s="93">
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="155"/>
+      <c r="I11" s="163"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -17934,12 +18026,12 @@
         <v>20</v>
       </c>
       <c r="F12" s="13">
-        <f>'November &amp; December'!O14</f>
-        <v>0</v>
+        <f>November!O14</f>
+        <v>4</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" ref="H12:H39" si="1">(G12/$G$11)*100</f>
@@ -17969,12 +18061,12 @@
         <v>20</v>
       </c>
       <c r="F13" s="13">
-        <f>'November &amp; December'!O15</f>
-        <v>0</v>
+        <f>November!O15</f>
+        <v>4</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
@@ -18004,12 +18096,12 @@
         <v>20</v>
       </c>
       <c r="F14" s="13">
-        <f>'November &amp; December'!O16</f>
-        <v>0</v>
+        <f>November!O16</f>
+        <v>4</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" si="1"/>
@@ -18039,12 +18131,12 @@
         <v>20</v>
       </c>
       <c r="F15" s="13">
-        <f>'November &amp; December'!O17</f>
-        <v>0</v>
+        <f>November!O17</f>
+        <v>4</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
@@ -18074,16 +18166,16 @@
         <v>12</v>
       </c>
       <c r="F16" s="13">
-        <f>'November &amp; December'!O18</f>
-        <v>0</v>
+        <f>November!O18</f>
+        <v>4</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I16" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18109,12 +18201,12 @@
         <v>20</v>
       </c>
       <c r="F17" s="13">
-        <f>'November &amp; December'!O19</f>
-        <v>0</v>
+        <f>November!O19</f>
+        <v>4</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" s="29">
         <f t="shared" si="1"/>
@@ -18144,12 +18236,12 @@
         <v>20</v>
       </c>
       <c r="F18" s="13">
-        <f>'November &amp; December'!O20</f>
-        <v>0</v>
+        <f>November!O20</f>
+        <v>4</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="1"/>
@@ -18179,12 +18271,12 @@
         <v>20</v>
       </c>
       <c r="F19" s="13">
-        <f>'November &amp; December'!O21</f>
-        <v>0</v>
+        <f>November!O21</f>
+        <v>4</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="1"/>
@@ -18214,12 +18306,12 @@
         <v>20</v>
       </c>
       <c r="F20" s="13">
-        <f>'November &amp; December'!O22</f>
-        <v>0</v>
+        <f>November!O22</f>
+        <v>4</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" si="1"/>
@@ -18249,12 +18341,12 @@
         <v>20</v>
       </c>
       <c r="F21" s="13">
-        <f>'November &amp; December'!O23</f>
-        <v>0</v>
+        <f>November!O23</f>
+        <v>4</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="1"/>
@@ -18284,12 +18376,12 @@
         <v>20</v>
       </c>
       <c r="F22" s="13">
-        <f>'November &amp; December'!O24</f>
-        <v>0</v>
+        <f>November!O24</f>
+        <v>4</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="1"/>
@@ -18319,12 +18411,12 @@
         <v>20</v>
       </c>
       <c r="F23" s="13">
-        <f>'November &amp; December'!O25</f>
-        <v>0</v>
+        <f>November!O25</f>
+        <v>4</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="1"/>
@@ -18354,12 +18446,12 @@
         <v>20</v>
       </c>
       <c r="F24" s="13">
-        <f>'November &amp; December'!O26</f>
-        <v>0</v>
+        <f>November!O26</f>
+        <v>4</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H24" s="29">
         <f t="shared" si="1"/>
@@ -18389,12 +18481,12 @@
         <v>20</v>
       </c>
       <c r="F25" s="13">
-        <f>'November &amp; December'!O27</f>
-        <v>0</v>
+        <f>November!O27</f>
+        <v>4</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H25" s="29">
         <f t="shared" si="1"/>
@@ -18424,12 +18516,12 @@
         <v>20</v>
       </c>
       <c r="F26" s="13">
-        <f>'November &amp; December'!O28</f>
-        <v>0</v>
+        <f>November!O28</f>
+        <v>4</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H26" s="29">
         <f t="shared" si="1"/>
@@ -18459,12 +18551,12 @@
         <v>20</v>
       </c>
       <c r="F27" s="13">
-        <f>'November &amp; December'!O29</f>
-        <v>0</v>
+        <f>November!O29</f>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H27" s="29">
         <f t="shared" si="1"/>
@@ -18494,12 +18586,12 @@
         <v>20</v>
       </c>
       <c r="F28" s="13">
-        <f>'November &amp; December'!O30</f>
-        <v>0</v>
+        <f>November!O30</f>
+        <v>4</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" si="1"/>
@@ -18529,12 +18621,12 @@
         <v>20</v>
       </c>
       <c r="F29" s="13">
-        <f>'November &amp; December'!O31</f>
-        <v>0</v>
+        <f>November!O31</f>
+        <v>4</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H29" s="29">
         <f t="shared" si="1"/>
@@ -18564,12 +18656,12 @@
         <v>20</v>
       </c>
       <c r="F30" s="13">
-        <f>'November &amp; December'!O32</f>
-        <v>0</v>
+        <f>November!O32</f>
+        <v>4</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H30" s="29">
         <f t="shared" si="1"/>
@@ -18599,12 +18691,12 @@
         <v>20</v>
       </c>
       <c r="F31" s="13">
-        <f>'November &amp; December'!O33</f>
-        <v>0</v>
+        <f>November!O33</f>
+        <v>4</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H31" s="29">
         <f t="shared" si="1"/>
@@ -18634,12 +18726,12 @@
         <v>20</v>
       </c>
       <c r="F32" s="13">
-        <f>'November &amp; December'!O34</f>
-        <v>0</v>
+        <f>November!O34</f>
+        <v>4</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H32" s="29">
         <f t="shared" si="1"/>
@@ -18669,16 +18761,16 @@
         <v>12</v>
       </c>
       <c r="F33" s="13">
-        <f>'November &amp; December'!O35</f>
-        <v>0</v>
+        <f>November!O35</f>
+        <v>4</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I33" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18704,16 +18796,16 @@
         <v>12</v>
       </c>
       <c r="F34" s="13">
-        <f>'November &amp; December'!O36</f>
-        <v>0</v>
+        <f>November!O36</f>
+        <v>4</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34" s="29">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I34" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18739,12 +18831,12 @@
         <v>20</v>
       </c>
       <c r="F35" s="13">
-        <f>'November &amp; December'!O37</f>
-        <v>0</v>
+        <f>November!O37</f>
+        <v>4</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="1"/>
@@ -18774,7 +18866,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="13">
-        <f>'November &amp; December'!O38</f>
+        <f>November!O38</f>
         <v>0</v>
       </c>
       <c r="G36" s="14">
@@ -18783,7 +18875,7 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="I36" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18809,12 +18901,12 @@
         <v>20</v>
       </c>
       <c r="F37" s="13">
-        <f>'November &amp; December'!O39</f>
-        <v>0</v>
+        <f>November!O39</f>
+        <v>4</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" si="1"/>
@@ -18844,16 +18936,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="13">
-        <f>'November &amp; December'!O40</f>
-        <v>0</v>
+        <f>November!O40</f>
+        <v>4</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="I38" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18879,12 +18971,12 @@
         <v>20</v>
       </c>
       <c r="F39" s="13">
-        <f>'November &amp; December'!O41</f>
-        <v>0</v>
+        <f>November!O41</f>
+        <v>4</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" si="1"/>
@@ -18908,10 +19000,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="153" t="s">
+      <c r="F42" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="153"/>
+      <c r="G42" s="161"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -18926,14 +19018,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -18943,6 +19027,14 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="254">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -2151,6 +2151,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2187,9 +2197,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2201,28 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2275,11 +2260,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2304,15 +2313,6 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2631,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2689,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2747,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2805,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,246 +4132,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="121" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="121" t="s">
+      <c r="D4" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="122" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="121" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="121" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="123" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
@@ -4401,10 +4401,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4446,16 +4446,16 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="124" t="s">
+      <c r="AA10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="118" t="s">
+      <c r="AB10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="110"/>
-      <c r="C11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4481,12 +4481,12 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="119"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="123"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="110"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4533,35 +4533,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="111"/>
-      <c r="C13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="117"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="121"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -7913,26 +7913,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="126" t="s">
+      <c r="I78" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="126"/>
-      <c r="N78" s="126"/>
-      <c r="O78" s="126"/>
-      <c r="P78" s="126"/>
-      <c r="Q78" s="126"/>
-      <c r="R78" s="126"/>
-      <c r="S78" s="126"/>
-      <c r="T78" s="126"/>
-      <c r="U78" s="126"/>
-      <c r="V78" s="126"/>
-      <c r="W78" s="126"/>
-      <c r="X78" s="126"/>
-      <c r="Y78" s="126"/>
-      <c r="Z78" s="126"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="109"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
+      <c r="R78" s="109"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="109"/>
+      <c r="U78" s="109"/>
+      <c r="V78" s="109"/>
+      <c r="W78" s="109"/>
+      <c r="X78" s="109"/>
+      <c r="Y78" s="109"/>
+      <c r="Z78" s="109"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8022,15 +8022,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8042,6 +8033,15 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8078,103 +8078,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="132" t="e">
+      <c r="C3" s="149" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="129" t="str">
+      <c r="C4" s="146" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="133">
+      <c r="I4" s="150">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="129" t="str">
+      <c r="C5" s="146" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8191,92 +8191,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="134" t="str">
+      <c r="H6" s="129" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="135" t="str">
+      <c r="C7" s="130" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="136">
+      <c r="G7" s="131">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="147" t="s">
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="150"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="145"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="146"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12267,6 +12267,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12277,12 +12283,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12394,46 +12394,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12466,22 +12466,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12502,22 +12502,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -12538,62 +12538,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -12612,10 +12612,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12634,16 +12634,16 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="124" t="s">
+      <c r="O10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="118" t="s">
+      <c r="P10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -12660,12 +12660,12 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="119"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="123"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12691,24 +12691,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="111"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="117"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="121"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13620,21 +13620,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="126" t="s">
+      <c r="C43" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="126"/>
+      <c r="D43" s="109"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="126" t="s">
+      <c r="H43" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13654,12 +13654,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13669,11 +13668,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13713,58 +13713,58 @@
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
     </row>
     <row r="3" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -13798,28 +13798,28 @@
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
       <c r="U4" s="88"/>
       <c r="V4" s="88"/>
       <c r="W4" s="88"/>
@@ -13835,28 +13835,28 @@
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
       <c r="W5" s="89"/>
@@ -13872,80 +13872,80 @@
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
@@ -13992,10 +13992,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="152" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14028,16 +14028,16 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="152" t="s">
+      <c r="U11" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="152" t="s">
+      <c r="V11" s="151" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
-      <c r="B12" s="151"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14058,12 +14058,12 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
     </row>
     <row r="13" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="151"/>
-      <c r="B13" s="151"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14103,28 +14103,28 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
-      <c r="B14" s="151"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
       <c r="U14" s="9"/>
       <c r="V14" s="108"/>
     </row>
@@ -15436,10 +15436,10 @@
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="126"/>
+      <c r="D44" s="109"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -15509,11 +15509,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:T4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:T14"/>
@@ -15523,11 +15523,11 @@
     <mergeCell ref="E6:T6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:T8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -15544,8 +15544,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15571,46 +15571,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -15643,22 +15643,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -15679,22 +15679,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -15715,80 +15715,80 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -15807,10 +15807,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="116" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -15829,23 +15829,25 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="124" t="s">
+      <c r="O10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="118" t="s">
+      <c r="P10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>253</v>
+      </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -15855,19 +15857,21 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="119"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="123"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20">
         <v>4</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20">
+        <v>6</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -15886,24 +15890,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="111"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="117"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="121"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -15918,7 +15922,9 @@
       <c r="D14" s="75">
         <v>4</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="75">
+        <v>4</v>
+      </c>
       <c r="F14" s="75"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -15930,11 +15936,11 @@
       <c r="N14" s="15"/>
       <c r="O14" s="21">
         <f>SUM(D14:N14)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P14" s="22">
         <f>(O14/$O$12)*$P$12</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15950,7 +15956,9 @@
       <c r="D15" s="75">
         <v>4</v>
       </c>
-      <c r="E15" s="75"/>
+      <c r="E15" s="75">
+        <v>4</v>
+      </c>
       <c r="F15" s="75"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -15962,11 +15970,11 @@
       <c r="N15" s="13"/>
       <c r="O15" s="21">
         <f t="shared" ref="O15:O52" si="0">SUM(D15:N15)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P15" s="22">
         <f t="shared" ref="P15:P76" si="1">(O15/$O$12)*$P$12</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -15982,7 +15990,9 @@
       <c r="D16" s="75">
         <v>4</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="75">
+        <v>4</v>
+      </c>
       <c r="F16" s="75"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -15994,11 +16004,11 @@
       <c r="N16" s="13"/>
       <c r="O16" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P16" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16014,7 +16024,9 @@
       <c r="D17" s="75">
         <v>4</v>
       </c>
-      <c r="E17" s="75"/>
+      <c r="E17" s="75">
+        <v>4</v>
+      </c>
       <c r="F17" s="75"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -16026,11 +16038,11 @@
       <c r="N17" s="13"/>
       <c r="O17" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P17" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16046,7 +16058,9 @@
       <c r="D18" s="75">
         <v>4</v>
       </c>
-      <c r="E18" s="75"/>
+      <c r="E18" s="75">
+        <v>4</v>
+      </c>
       <c r="F18" s="75"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -16058,11 +16072,11 @@
       <c r="N18" s="13"/>
       <c r="O18" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P18" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16078,7 +16092,9 @@
       <c r="D19" s="75">
         <v>4</v>
       </c>
-      <c r="E19" s="75"/>
+      <c r="E19" s="75">
+        <v>4</v>
+      </c>
       <c r="F19" s="75"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -16090,11 +16106,11 @@
       <c r="N19" s="13"/>
       <c r="O19" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P19" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16110,7 +16126,9 @@
       <c r="D20" s="75">
         <v>4</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="75">
+        <v>4</v>
+      </c>
       <c r="F20" s="75"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -16122,11 +16140,11 @@
       <c r="N20" s="13"/>
       <c r="O20" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16142,7 +16160,9 @@
       <c r="D21" s="75">
         <v>4</v>
       </c>
-      <c r="E21" s="75"/>
+      <c r="E21" s="75">
+        <v>4</v>
+      </c>
       <c r="F21" s="75"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -16154,11 +16174,11 @@
       <c r="N21" s="13"/>
       <c r="O21" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16174,7 +16194,9 @@
       <c r="D22" s="75">
         <v>4</v>
       </c>
-      <c r="E22" s="75"/>
+      <c r="E22" s="75">
+        <v>4</v>
+      </c>
       <c r="F22" s="75"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -16186,11 +16208,11 @@
       <c r="N22" s="13"/>
       <c r="O22" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16206,7 +16228,9 @@
       <c r="D23" s="75">
         <v>4</v>
       </c>
-      <c r="E23" s="75"/>
+      <c r="E23" s="75">
+        <v>4</v>
+      </c>
       <c r="F23" s="75"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -16218,11 +16242,11 @@
       <c r="N23" s="13"/>
       <c r="O23" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16238,7 +16262,9 @@
       <c r="D24" s="75">
         <v>4</v>
       </c>
-      <c r="E24" s="75"/>
+      <c r="E24" s="75">
+        <v>4</v>
+      </c>
       <c r="F24" s="75"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -16250,11 +16276,11 @@
       <c r="N24" s="13"/>
       <c r="O24" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16270,7 +16296,9 @@
       <c r="D25" s="75">
         <v>4</v>
       </c>
-      <c r="E25" s="75"/>
+      <c r="E25" s="75">
+        <v>4</v>
+      </c>
       <c r="F25" s="75"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -16282,11 +16310,11 @@
       <c r="N25" s="13"/>
       <c r="O25" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16302,7 +16330,9 @@
       <c r="D26" s="75">
         <v>4</v>
       </c>
-      <c r="E26" s="75"/>
+      <c r="E26" s="75">
+        <v>4</v>
+      </c>
       <c r="F26" s="75"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -16314,11 +16344,11 @@
       <c r="N26" s="13"/>
       <c r="O26" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P26" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16334,7 +16364,9 @@
       <c r="D27" s="75">
         <v>4</v>
       </c>
-      <c r="E27" s="75"/>
+      <c r="E27" s="75">
+        <v>4</v>
+      </c>
       <c r="F27" s="75"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -16346,11 +16378,11 @@
       <c r="N27" s="13"/>
       <c r="O27" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P27" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16366,7 +16398,9 @@
       <c r="D28" s="75">
         <v>4</v>
       </c>
-      <c r="E28" s="75"/>
+      <c r="E28" s="75">
+        <v>4</v>
+      </c>
       <c r="F28" s="75"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -16378,11 +16412,11 @@
       <c r="N28" s="13"/>
       <c r="O28" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16398,7 +16432,9 @@
       <c r="D29" s="75">
         <v>4</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="75">
+        <v>4</v>
+      </c>
       <c r="F29" s="75"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -16410,11 +16446,11 @@
       <c r="N29" s="13"/>
       <c r="O29" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P29" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16430,7 +16466,9 @@
       <c r="D30" s="75">
         <v>4</v>
       </c>
-      <c r="E30" s="75"/>
+      <c r="E30" s="75">
+        <v>4</v>
+      </c>
       <c r="F30" s="75"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -16442,11 +16480,11 @@
       <c r="N30" s="13"/>
       <c r="O30" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P30" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16462,7 +16500,9 @@
       <c r="D31" s="75">
         <v>4</v>
       </c>
-      <c r="E31" s="75"/>
+      <c r="E31" s="75">
+        <v>4</v>
+      </c>
       <c r="F31" s="75"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -16474,11 +16514,11 @@
       <c r="N31" s="13"/>
       <c r="O31" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P31" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16494,7 +16534,9 @@
       <c r="D32" s="75">
         <v>4</v>
       </c>
-      <c r="E32" s="75"/>
+      <c r="E32" s="75">
+        <v>4</v>
+      </c>
       <c r="F32" s="75"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -16506,11 +16548,11 @@
       <c r="N32" s="13"/>
       <c r="O32" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P32" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16526,7 +16568,9 @@
       <c r="D33" s="75">
         <v>4</v>
       </c>
-      <c r="E33" s="75"/>
+      <c r="E33" s="75">
+        <v>4</v>
+      </c>
       <c r="F33" s="75"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -16538,11 +16582,11 @@
       <c r="N33" s="13"/>
       <c r="O33" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16558,7 +16602,9 @@
       <c r="D34" s="75">
         <v>4</v>
       </c>
-      <c r="E34" s="75"/>
+      <c r="E34" s="75">
+        <v>4</v>
+      </c>
       <c r="F34" s="75"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -16570,11 +16616,11 @@
       <c r="N34" s="13"/>
       <c r="O34" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P34" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16590,7 +16636,9 @@
       <c r="D35" s="75">
         <v>4</v>
       </c>
-      <c r="E35" s="75"/>
+      <c r="E35" s="75">
+        <v>4</v>
+      </c>
       <c r="F35" s="75"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -16602,11 +16650,11 @@
       <c r="N35" s="13"/>
       <c r="O35" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P35" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16622,7 +16670,9 @@
       <c r="D36" s="75">
         <v>4</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="75">
+        <v>4</v>
+      </c>
       <c r="F36" s="75"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -16634,11 +16684,11 @@
       <c r="N36" s="13"/>
       <c r="O36" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P36" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16654,7 +16704,9 @@
       <c r="D37" s="75">
         <v>4</v>
       </c>
-      <c r="E37" s="75"/>
+      <c r="E37" s="75">
+        <v>4</v>
+      </c>
       <c r="F37" s="75"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -16666,11 +16718,11 @@
       <c r="N37" s="13"/>
       <c r="O37" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P37" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16686,7 +16738,9 @@
       <c r="D38" s="75">
         <v>0</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="75">
+        <v>0</v>
+      </c>
       <c r="F38" s="75"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -16718,7 +16772,9 @@
       <c r="D39" s="75">
         <v>4</v>
       </c>
-      <c r="E39" s="75"/>
+      <c r="E39" s="75">
+        <v>4</v>
+      </c>
       <c r="F39" s="75"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -16730,11 +16786,11 @@
       <c r="N39" s="13"/>
       <c r="O39" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P39" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16750,7 +16806,9 @@
       <c r="D40" s="75">
         <v>4</v>
       </c>
-      <c r="E40" s="75"/>
+      <c r="E40" s="75">
+        <v>4</v>
+      </c>
       <c r="F40" s="75"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -16762,11 +16820,11 @@
       <c r="N40" s="13"/>
       <c r="O40" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P40" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16782,7 +16840,9 @@
       <c r="D41" s="75">
         <v>4</v>
       </c>
-      <c r="E41" s="75"/>
+      <c r="E41" s="75">
+        <v>4</v>
+      </c>
       <c r="F41" s="75"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -16794,11 +16854,11 @@
       <c r="N41" s="13"/>
       <c r="O41" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P41" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17725,10 +17785,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="126" t="s">
+      <c r="C78" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="126"/>
+      <c r="D78" s="109"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -17736,10 +17796,10 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="126" t="s">
+      <c r="M78" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="126"/>
+      <c r="N78" s="109"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -17774,6 +17834,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="E7:T7"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="C8:D8"/>
@@ -17783,17 +17854,6 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:T6"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -17835,26 +17895,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17862,13 +17922,13 @@
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -17876,13 +17936,13 @@
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -17890,13 +17950,13 @@
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -17904,13 +17964,13 @@
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -17918,13 +17978,13 @@
       <c r="C7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -17937,51 +17997,51 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="160" t="str">
+      <c r="D9" s="163" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="160" t="str">
+      <c r="E9" s="163" t="str">
         <f>October!E5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="160" t="str">
+      <c r="F9" s="163" t="str">
         <f>November!E5</f>
         <v>November 2023</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="162" t="s">
+      <c r="I9" s="154" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="163"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="90" t="s">
         <v>10</v>
       </c>
@@ -18005,7 +18065,7 @@
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="163"/>
+      <c r="I11" s="155"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -18027,15 +18087,15 @@
       </c>
       <c r="F12" s="13">
         <f>November!O14</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" ref="H12:H39" si="1">(G12/$G$11)*100</f>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>IF(AND(H12&gt;=75),"Eligible","Not Eligible")</f>
@@ -18062,15 +18122,15 @@
       </c>
       <c r="F13" s="13">
         <f>November!O15</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>IF(AND(H13&gt;=75),"Eligible","Not Eligible")</f>
@@ -18097,15 +18157,15 @@
       </c>
       <c r="F14" s="13">
         <f>November!O16</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I14" s="30" t="str">
         <f t="shared" ref="I14:I39" si="2">IF(AND(H14&gt;=75),"Eligible","Not Eligible")</f>
@@ -18132,15 +18192,15 @@
       </c>
       <c r="F15" s="13">
         <f>November!O17</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I15" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18167,19 +18227,19 @@
       </c>
       <c r="F16" s="13">
         <f>November!O18</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="I16" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18202,15 +18262,15 @@
       </c>
       <c r="F17" s="13">
         <f>November!O19</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H17" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I17" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18237,15 +18297,15 @@
       </c>
       <c r="F18" s="13">
         <f>November!O20</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I18" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18272,15 +18332,15 @@
       </c>
       <c r="F19" s="13">
         <f>November!O21</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I19" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18307,15 +18367,15 @@
       </c>
       <c r="F20" s="13">
         <f>November!O22</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I20" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18342,15 +18402,15 @@
       </c>
       <c r="F21" s="13">
         <f>November!O23</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I21" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18377,15 +18437,15 @@
       </c>
       <c r="F22" s="13">
         <f>November!O24</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I22" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18412,15 +18472,15 @@
       </c>
       <c r="F23" s="13">
         <f>November!O25</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I23" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18447,15 +18507,15 @@
       </c>
       <c r="F24" s="13">
         <f>November!O26</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H24" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I24" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18482,15 +18542,15 @@
       </c>
       <c r="F25" s="13">
         <f>November!O27</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H25" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I25" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18517,15 +18577,15 @@
       </c>
       <c r="F26" s="13">
         <f>November!O28</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H26" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I26" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18552,15 +18612,15 @@
       </c>
       <c r="F27" s="13">
         <f>November!O29</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H27" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I27" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18587,15 +18647,15 @@
       </c>
       <c r="F28" s="13">
         <f>November!O30</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I28" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18622,15 +18682,15 @@
       </c>
       <c r="F29" s="13">
         <f>November!O31</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H29" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I29" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18657,15 +18717,15 @@
       </c>
       <c r="F30" s="13">
         <f>November!O32</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H30" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I30" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18692,15 +18752,15 @@
       </c>
       <c r="F31" s="13">
         <f>November!O33</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H31" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I31" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18727,15 +18787,15 @@
       </c>
       <c r="F32" s="13">
         <f>November!O34</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H32" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I32" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18762,15 +18822,15 @@
       </c>
       <c r="F33" s="13">
         <f>November!O35</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="1"/>
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I33" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18797,15 +18857,15 @@
       </c>
       <c r="F34" s="13">
         <f>November!O36</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H34" s="29">
         <f t="shared" si="1"/>
-        <v>57.142857142857139</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I34" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18832,15 +18892,15 @@
       </c>
       <c r="F35" s="13">
         <f>November!O37</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I35" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18902,15 +18962,15 @@
       </c>
       <c r="F37" s="13">
         <f>November!O39</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I37" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18937,15 +18997,15 @@
       </c>
       <c r="F38" s="13">
         <f>November!O40</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="I38" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18972,15 +19032,15 @@
       </c>
       <c r="F39" s="13">
         <f>November!O41</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>114.28571428571428</v>
       </c>
       <c r="I39" s="30" t="str">
         <f t="shared" si="2"/>
@@ -19000,10 +19060,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="161" t="s">
+      <c r="F42" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="161"/>
+      <c r="G42" s="153"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -19018,6 +19078,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -19027,14 +19095,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">August!$B$1:$AB$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">November!$A$1:$P$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">November!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">October!$A$1:$V$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Overall Attendance'!$A$1:$I$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">September!$A$1:$P$44</definedName>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -2151,16 +2151,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2197,6 +2187,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2208,6 +2201,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2260,35 +2275,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2313,6 +2304,15 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2631,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2689,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2747,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2805,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,246 +4132,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="D1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111" t="s">
+      <c r="D4" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="127"/>
+      <c r="F4" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="125" t="s">
+      <c r="E5" s="127"/>
+      <c r="F5" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111" t="s">
+      <c r="E6" s="127"/>
+      <c r="F6" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="126" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
@@ -4401,10 +4401,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="112" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4446,16 +4446,16 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="127" t="s">
+      <c r="AA10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="122" t="s">
+      <c r="AB10" s="118" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="114"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4481,12 +4481,12 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="123"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="119"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="114"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4533,35 +4533,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="115"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="121"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="117"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -7913,26 +7913,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="109" t="s">
+      <c r="I78" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="109"/>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="109"/>
-      <c r="V78" s="109"/>
-      <c r="W78" s="109"/>
-      <c r="X78" s="109"/>
-      <c r="Y78" s="109"/>
-      <c r="Z78" s="109"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="126"/>
+      <c r="Q78" s="126"/>
+      <c r="R78" s="126"/>
+      <c r="S78" s="126"/>
+      <c r="T78" s="126"/>
+      <c r="U78" s="126"/>
+      <c r="V78" s="126"/>
+      <c r="W78" s="126"/>
+      <c r="X78" s="126"/>
+      <c r="Y78" s="126"/>
+      <c r="Z78" s="126"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8022,6 +8022,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8033,15 +8042,6 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8078,103 +8078,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="149" t="e">
+      <c r="C3" s="132" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="146" t="str">
+      <c r="C4" s="129" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="150">
+      <c r="I4" s="133">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="146" t="str">
+      <c r="C5" s="129" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8191,92 +8191,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="129" t="str">
+      <c r="H6" s="134" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="130" t="str">
+      <c r="C7" s="135" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="131">
+      <c r="G7" s="136">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="140" t="s">
+      <c r="C9" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="142" t="s">
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="145"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="150"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="135"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="141"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12267,12 +12267,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12283,6 +12277,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12394,46 +12394,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12466,22 +12466,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12502,22 +12502,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="122" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -12538,62 +12538,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="127"/>
+      <c r="E7" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -12612,10 +12612,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="112" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12634,16 +12634,16 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="118" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -12660,12 +12660,12 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="123"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="119"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12691,24 +12691,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13620,21 +13620,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="109"/>
+      <c r="D43" s="126"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="109" t="s">
+      <c r="H43" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13654,11 +13654,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13668,12 +13669,11 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13713,58 +13713,58 @@
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
     </row>
     <row r="2" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
     </row>
     <row r="3" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -13798,28 +13798,28 @@
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
       <c r="U4" s="88"/>
       <c r="V4" s="88"/>
       <c r="W4" s="88"/>
@@ -13835,28 +13835,28 @@
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
       <c r="W5" s="89"/>
@@ -13872,80 +13872,80 @@
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="127"/>
+      <c r="E7" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
@@ -13992,10 +13992,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="151" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14028,16 +14028,16 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="151" t="s">
+      <c r="U11" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="151" t="s">
+      <c r="V11" s="152" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14058,12 +14058,12 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
     </row>
     <row r="13" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14103,28 +14103,28 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
       <c r="U14" s="9"/>
       <c r="V14" s="108"/>
     </row>
@@ -15436,10 +15436,10 @@
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="109"/>
+      <c r="D44" s="126"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -15509,11 +15509,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:T8"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:T14"/>
@@ -15523,11 +15523,11 @@
     <mergeCell ref="E6:T6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:T7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:T4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -15542,10 +15542,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD84"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15555,62 +15555,53 @@
     <col min="3" max="3" width="17.09765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.3984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="4.69921875" style="4" customWidth="1"/>
     <col min="9" max="9" width="5.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.8984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="4.69921875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="4.3984375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="4.296875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="6" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.09765625" style="4"/>
+    <col min="10" max="10" width="4.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.296875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-    </row>
-    <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+    </row>
+    <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-    </row>
-    <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+    </row>
+    <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -15636,29 +15627,26 @@
       <c r="Y3" s="88"/>
       <c r="Z3" s="88"/>
       <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-    </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -15672,29 +15660,26 @@
       <c r="Y4" s="88"/>
       <c r="Z4" s="88"/>
       <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-    </row>
-    <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -15708,89 +15693,77 @@
       <c r="Y5" s="89"/>
       <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-    </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-    </row>
-    <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+    </row>
+    <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="127"/>
+      <c r="E7" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-    </row>
-    <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+    </row>
+    <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-    </row>
-    <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+    </row>
+    <row r="9" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -15800,17 +15773,14 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="112" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -15819,26 +15789,27 @@
       <c r="D10" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="24">
+        <v>6</v>
+      </c>
+      <c r="F10" s="24">
+        <v>20</v>
+      </c>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="127" t="s">
+      <c r="L10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="M10" s="118" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+    <row r="11" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -15848,21 +15819,20 @@
       <c r="E11" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28" t="s">
+        <v>253</v>
+      </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="123"/>
-    </row>
-    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="119"/>
+    </row>
+    <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -15870,46 +15840,43 @@
         <v>4</v>
       </c>
       <c r="E12" s="20">
-        <v>6</v>
-      </c>
-      <c r="F12" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="20">
+        <v>4</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21">
-        <v>4</v>
-      </c>
-      <c r="P12" s="27">
-        <f>(O12/$O$12)*100</f>
+      <c r="L12" s="21">
+        <f>SUM(D12:K12)</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="27">
+        <f>(L12/$L$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
+    <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
-    </row>
-    <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
+    </row>
+    <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -15925,25 +15892,24 @@
       <c r="E14" s="75">
         <v>4</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="75">
+        <v>4</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="21">
-        <f>SUM(D14:N14)</f>
-        <v>8</v>
-      </c>
-      <c r="P14" s="22">
-        <f>(O14/$O$12)*$P$12</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="21">
+        <f>SUM(D14:K14)</f>
+        <v>12</v>
+      </c>
+      <c r="M14" s="22">
+        <f>(L14/$L$12)*$M$12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -15959,25 +15925,24 @@
       <c r="E15" s="75">
         <v>4</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="75">
+        <v>4</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="21">
-        <f t="shared" ref="O15:O52" si="0">SUM(D15:N15)</f>
-        <v>8</v>
-      </c>
-      <c r="P15" s="22">
-        <f t="shared" ref="P15:P76" si="1">(O15/$O$12)*$P$12</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="21">
+        <f>SUM(D15:K15)</f>
+        <v>12</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" ref="M15:M76" si="0">(L15/$L$12)*$M$12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -15993,25 +15958,24 @@
       <c r="E16" s="75">
         <v>4</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="75">
+        <v>4</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P16" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="21">
+        <f>SUM(D16:K16)</f>
+        <v>12</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -16027,25 +15991,24 @@
       <c r="E17" s="75">
         <v>4</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="75">
+        <v>4</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P17" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="21">
+        <f>SUM(D17:K17)</f>
+        <v>12</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -16061,25 +16024,24 @@
       <c r="E18" s="75">
         <v>4</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="75">
+        <v>4</v>
+      </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P18" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="21">
+        <f>SUM(D18:K18)</f>
+        <v>12</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>6</v>
       </c>
@@ -16095,25 +16057,24 @@
       <c r="E19" s="75">
         <v>4</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="75">
+        <v>0</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="21">
-        <f t="shared" si="0"/>
+      <c r="L19" s="21">
+        <f>SUM(D19:K19)</f>
         <v>8</v>
       </c>
-      <c r="P19" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M19" s="22">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>7</v>
       </c>
@@ -16129,25 +16090,24 @@
       <c r="E20" s="75">
         <v>4</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="75">
+        <v>4</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P20" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="21">
+        <f>SUM(D20:K20)</f>
+        <v>12</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>8</v>
       </c>
@@ -16163,25 +16123,24 @@
       <c r="E21" s="75">
         <v>4</v>
       </c>
-      <c r="F21" s="75"/>
+      <c r="F21" s="75">
+        <v>4</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P21" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="21">
+        <f>SUM(D21:K21)</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>9</v>
       </c>
@@ -16197,25 +16156,24 @@
       <c r="E22" s="75">
         <v>4</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="75">
+        <v>4</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P22" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="21">
+        <f>SUM(D22:K22)</f>
+        <v>12</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>10</v>
       </c>
@@ -16231,25 +16189,24 @@
       <c r="E23" s="75">
         <v>4</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="75">
+        <v>4</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P23" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="21">
+        <f>SUM(D23:K23)</f>
+        <v>12</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>11</v>
       </c>
@@ -16265,25 +16222,24 @@
       <c r="E24" s="75">
         <v>4</v>
       </c>
-      <c r="F24" s="75"/>
+      <c r="F24" s="75">
+        <v>4</v>
+      </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P24" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="21">
+        <f>SUM(D24:K24)</f>
+        <v>12</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>12</v>
       </c>
@@ -16299,25 +16255,24 @@
       <c r="E25" s="75">
         <v>4</v>
       </c>
-      <c r="F25" s="75"/>
+      <c r="F25" s="75">
+        <v>4</v>
+      </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P25" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="21">
+        <f>SUM(D25:K25)</f>
+        <v>12</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>13</v>
       </c>
@@ -16333,25 +16288,24 @@
       <c r="E26" s="75">
         <v>4</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="75">
+        <v>4</v>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P26" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="21">
+        <f>SUM(D26:K26)</f>
+        <v>12</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>14</v>
       </c>
@@ -16367,25 +16321,24 @@
       <c r="E27" s="75">
         <v>4</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="75">
+        <v>4</v>
+      </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P27" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="21">
+        <f>SUM(D27:K27)</f>
+        <v>12</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>15</v>
       </c>
@@ -16401,25 +16354,24 @@
       <c r="E28" s="75">
         <v>4</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="75">
+        <v>4</v>
+      </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P28" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="21">
+        <f>SUM(D28:K28)</f>
+        <v>12</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>16</v>
       </c>
@@ -16435,28 +16387,25 @@
       <c r="E29" s="75">
         <v>4</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="75">
+        <v>4</v>
+      </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P29" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
-        <v>17</v>
-      </c>
+      <c r="L29" s="21">
+        <f>SUM(D29:K29)</f>
+        <v>12</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
       <c r="B30" s="98" t="s">
         <v>218</v>
       </c>
@@ -16469,27 +16418,26 @@
       <c r="E30" s="75">
         <v>4</v>
       </c>
-      <c r="F30" s="75"/>
+      <c r="F30" s="75">
+        <v>4</v>
+      </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P30" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="21">
+        <f>SUM(D30:K30)</f>
+        <v>12</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" ref="M30" si="1">(L30/$L$12)*$M$12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="98" t="s">
         <v>220</v>
@@ -16503,25 +16451,24 @@
       <c r="E31" s="75">
         <v>4</v>
       </c>
-      <c r="F31" s="75"/>
+      <c r="F31" s="75">
+        <v>4</v>
+      </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P31" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="21">
+        <f>SUM(D31:K31)</f>
+        <v>12</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>19</v>
       </c>
@@ -16537,25 +16484,24 @@
       <c r="E32" s="75">
         <v>4</v>
       </c>
-      <c r="F32" s="75"/>
+      <c r="F32" s="75">
+        <v>4</v>
+      </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P32" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="21">
+        <f>SUM(D32:K32)</f>
+        <v>12</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>20</v>
       </c>
@@ -16571,25 +16517,24 @@
       <c r="E33" s="75">
         <v>4</v>
       </c>
-      <c r="F33" s="75"/>
+      <c r="F33" s="75">
+        <v>4</v>
+      </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P33" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="21">
+        <f>SUM(D33:K33)</f>
+        <v>12</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <v>21</v>
       </c>
@@ -16605,25 +16550,24 @@
       <c r="E34" s="75">
         <v>4</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="75">
+        <v>4</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P34" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="21">
+        <f>SUM(D34:K34)</f>
+        <v>12</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <v>22</v>
       </c>
@@ -16639,25 +16583,24 @@
       <c r="E35" s="75">
         <v>4</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="75">
+        <v>4</v>
+      </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P35" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="21">
+        <f>SUM(D35:K35)</f>
+        <v>12</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>23</v>
       </c>
@@ -16673,25 +16616,24 @@
       <c r="E36" s="75">
         <v>4</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="75">
+        <v>4</v>
+      </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P36" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="21">
+        <f>SUM(D36:K36)</f>
+        <v>12</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>24</v>
       </c>
@@ -16707,25 +16649,24 @@
       <c r="E37" s="75">
         <v>4</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="75">
+        <v>4</v>
+      </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P37" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="21">
+        <f>SUM(D37:K37)</f>
+        <v>12</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
         <v>25</v>
       </c>
@@ -16741,25 +16682,24 @@
       <c r="E38" s="75">
         <v>0</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="75">
+        <v>0</v>
+      </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="21">
+        <f>SUM(D38:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
         <v>26</v>
       </c>
@@ -16775,25 +16715,24 @@
       <c r="E39" s="75">
         <v>4</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="75">
+        <v>4</v>
+      </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P39" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="21">
+        <f>SUM(D39:K39)</f>
+        <v>12</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <v>27</v>
       </c>
@@ -16809,25 +16748,24 @@
       <c r="E40" s="75">
         <v>4</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="75">
+        <v>4</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P40" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="21">
+        <f>SUM(D40:K40)</f>
+        <v>12</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>28</v>
       </c>
@@ -16843,25 +16781,24 @@
       <c r="E41" s="75">
         <v>4</v>
       </c>
-      <c r="F41" s="75"/>
+      <c r="F41" s="75">
+        <v>4</v>
+      </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P41" s="22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="21">
+        <f>SUM(D41:K41)</f>
+        <v>12</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>29</v>
       </c>
@@ -16875,19 +16812,16 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="21">
+        <f>SUM(D42:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <v>30</v>
       </c>
@@ -16901,19 +16835,16 @@
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="21">
+        <f>SUM(D43:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
         <v>31</v>
       </c>
@@ -16927,19 +16858,16 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="21">
+        <f>SUM(D44:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
         <v>32</v>
       </c>
@@ -16953,19 +16881,16 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L45" s="21">
+        <f>SUM(D45:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
         <v>33</v>
       </c>
@@ -16979,19 +16904,16 @@
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L46" s="21">
+        <f>SUM(D46:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <v>34</v>
       </c>
@@ -17005,19 +16927,16 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L47" s="21">
+        <f>SUM(D47:K47)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
         <v>35</v>
       </c>
@@ -17031,19 +16950,16 @@
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L48" s="21">
+        <f>SUM(D48:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
         <v>36</v>
       </c>
@@ -17057,19 +16973,16 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L49" s="21">
+        <f>SUM(D49:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
         <v>37</v>
       </c>
@@ -17083,19 +16996,16 @@
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L50" s="21">
+        <f>SUM(D50:K50)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
         <v>38</v>
       </c>
@@ -17109,19 +17019,16 @@
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L51" s="21">
+        <f>SUM(D51:K51)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
         <v>39</v>
       </c>
@@ -17135,19 +17042,16 @@
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L52" s="21">
+        <f>SUM(D52:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8">
         <v>40</v>
       </c>
@@ -17161,19 +17065,16 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="21">
-        <f t="shared" ref="O53:O76" si="2">SUM(D53:N53)</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L53" s="21">
+        <f t="shared" ref="L53:L76" si="2">SUM(D53:K53)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8">
         <v>41</v>
       </c>
@@ -17187,19 +17088,16 @@
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="21">
+      <c r="L54" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P54" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M54" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8">
         <v>42</v>
       </c>
@@ -17213,19 +17111,16 @@
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="21">
+      <c r="L55" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P55" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M55" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
         <v>43</v>
       </c>
@@ -17239,19 +17134,16 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="21">
+      <c r="L56" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P56" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M56" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8">
         <v>44</v>
       </c>
@@ -17265,19 +17157,16 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="21">
+      <c r="L57" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P57" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M57" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8">
         <v>45</v>
       </c>
@@ -17291,19 +17180,16 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="21">
+      <c r="L58" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P58" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M58" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8">
         <v>46</v>
       </c>
@@ -17317,19 +17203,16 @@
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="21">
+      <c r="L59" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P59" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M59" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8">
         <v>47</v>
       </c>
@@ -17343,19 +17226,16 @@
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="21">
+      <c r="L60" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P60" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M60" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8">
         <v>48</v>
       </c>
@@ -17369,19 +17249,16 @@
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="21">
+      <c r="L61" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P61" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M61" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8">
         <v>49</v>
       </c>
@@ -17395,19 +17272,16 @@
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="21">
+      <c r="L62" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P62" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M62" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8">
         <v>50</v>
       </c>
@@ -17421,19 +17295,16 @@
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="21">
+      <c r="L63" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P63" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M63" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8">
         <v>51</v>
       </c>
@@ -17447,19 +17318,16 @@
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="21">
+      <c r="L64" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P64" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M64" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8">
         <v>52</v>
       </c>
@@ -17473,19 +17341,16 @@
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="21">
+      <c r="L65" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P65" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M65" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8">
         <v>53</v>
       </c>
@@ -17499,19 +17364,16 @@
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="21">
+      <c r="L66" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P66" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8">
         <v>54</v>
       </c>
@@ -17525,19 +17387,16 @@
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="21">
+      <c r="L67" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P67" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M67" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8">
         <v>55</v>
       </c>
@@ -17551,19 +17410,16 @@
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="21">
+      <c r="L68" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P68" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M68" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8">
         <v>56</v>
       </c>
@@ -17577,19 +17433,16 @@
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="21">
+      <c r="L69" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P69" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M69" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8">
         <v>57</v>
       </c>
@@ -17603,19 +17456,16 @@
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="21">
+      <c r="L70" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P70" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M70" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8">
         <v>58</v>
       </c>
@@ -17629,19 +17479,16 @@
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="21">
+      <c r="L71" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P71" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M71" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8">
         <v>59</v>
       </c>
@@ -17655,19 +17502,16 @@
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="21">
+      <c r="L72" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P72" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M72" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8">
         <v>60</v>
       </c>
@@ -17681,19 +17525,16 @@
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="21">
+      <c r="L73" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P73" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M73" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8">
         <v>61</v>
       </c>
@@ -17707,19 +17548,16 @@
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="21">
+      <c r="L74" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P74" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M74" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8">
         <v>62</v>
       </c>
@@ -17733,19 +17571,16 @@
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="21">
+      <c r="L75" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P75" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M75" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>63</v>
       </c>
@@ -17759,67 +17594,52 @@
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="21">
+      <c r="L76" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P76" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M76" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="109" t="s">
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C78" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="109"/>
+      <c r="D78" s="126"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="109" t="s">
+      <c r="J78" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="109"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K78" s="126"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -17828,32 +17648,29 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:T6"/>
-    <mergeCell ref="E7:T7"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="J78:K78"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -17895,26 +17712,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="C1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17922,13 +17739,13 @@
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -17936,13 +17753,13 @@
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -17950,13 +17767,13 @@
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -17964,13 +17781,13 @@
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -17978,13 +17795,13 @@
       <c r="C7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -17997,51 +17814,51 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="156" t="s">
+      <c r="B9" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="153" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="163" t="str">
+      <c r="D9" s="160" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="163" t="str">
+      <c r="E9" s="160" t="str">
         <f>October!E5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="163" t="str">
+      <c r="F9" s="160" t="str">
         <f>November!E5</f>
         <v>November 2023</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="162" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="155"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="90" t="s">
         <v>10</v>
       </c>
@@ -18054,18 +17871,18 @@
         <v>20</v>
       </c>
       <c r="F11" s="91">
-        <f>November!O12</f>
-        <v>4</v>
+        <f>November!L12</f>
+        <v>12</v>
       </c>
       <c r="G11" s="92">
         <f t="shared" ref="G11:G39" si="0">SUM(D11:F11)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H11" s="93">
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="155"/>
+      <c r="I11" s="163"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -18086,16 +17903,16 @@
         <v>20</v>
       </c>
       <c r="F12" s="13">
-        <f>November!O14</f>
-        <v>8</v>
+        <f>November!L14</f>
+        <v>12</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" ref="H12:H39" si="1">(G12/$G$11)*100</f>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>IF(AND(H12&gt;=75),"Eligible","Not Eligible")</f>
@@ -18121,16 +17938,16 @@
         <v>20</v>
       </c>
       <c r="F13" s="13">
-        <f>November!O15</f>
-        <v>8</v>
+        <f>November!L15</f>
+        <v>12</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>IF(AND(H13&gt;=75),"Eligible","Not Eligible")</f>
@@ -18156,16 +17973,16 @@
         <v>20</v>
       </c>
       <c r="F14" s="13">
-        <f>November!O16</f>
-        <v>8</v>
+        <f>November!L16</f>
+        <v>12</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I14" s="30" t="str">
         <f t="shared" ref="I14:I39" si="2">IF(AND(H14&gt;=75),"Eligible","Not Eligible")</f>
@@ -18191,16 +18008,16 @@
         <v>20</v>
       </c>
       <c r="F15" s="13">
-        <f>November!O17</f>
-        <v>8</v>
+        <f>November!L17</f>
+        <v>12</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I15" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18226,16 +18043,16 @@
         <v>12</v>
       </c>
       <c r="F16" s="13">
-        <f>November!O18</f>
-        <v>8</v>
+        <f>November!L18</f>
+        <v>12</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="I16" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18261,7 +18078,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="13">
-        <f>November!O19</f>
+        <f>November!L19</f>
         <v>8</v>
       </c>
       <c r="G17" s="14">
@@ -18270,7 +18087,7 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="I17" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18296,16 +18113,16 @@
         <v>20</v>
       </c>
       <c r="F18" s="13">
-        <f>November!O20</f>
-        <v>8</v>
+        <f>November!L20</f>
+        <v>12</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I18" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18331,16 +18148,16 @@
         <v>20</v>
       </c>
       <c r="F19" s="13">
-        <f>November!O21</f>
-        <v>8</v>
+        <f>November!L21</f>
+        <v>12</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I19" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18366,16 +18183,16 @@
         <v>20</v>
       </c>
       <c r="F20" s="13">
-        <f>November!O22</f>
-        <v>8</v>
+        <f>November!L22</f>
+        <v>12</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I20" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18401,16 +18218,16 @@
         <v>20</v>
       </c>
       <c r="F21" s="13">
-        <f>November!O23</f>
-        <v>8</v>
+        <f>November!L23</f>
+        <v>12</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I21" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18436,16 +18253,16 @@
         <v>20</v>
       </c>
       <c r="F22" s="13">
-        <f>November!O24</f>
-        <v>8</v>
+        <f>November!L24</f>
+        <v>12</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I22" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18471,16 +18288,16 @@
         <v>20</v>
       </c>
       <c r="F23" s="13">
-        <f>November!O25</f>
-        <v>8</v>
+        <f>November!L25</f>
+        <v>12</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I23" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18506,16 +18323,16 @@
         <v>20</v>
       </c>
       <c r="F24" s="13">
-        <f>November!O26</f>
-        <v>8</v>
+        <f>November!L26</f>
+        <v>12</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H24" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I24" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18541,16 +18358,16 @@
         <v>20</v>
       </c>
       <c r="F25" s="13">
-        <f>November!O27</f>
-        <v>8</v>
+        <f>November!L27</f>
+        <v>12</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H25" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I25" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18576,16 +18393,16 @@
         <v>20</v>
       </c>
       <c r="F26" s="13">
-        <f>November!O28</f>
-        <v>8</v>
+        <f>November!L28</f>
+        <v>12</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H26" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I26" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18611,16 +18428,16 @@
         <v>20</v>
       </c>
       <c r="F27" s="13">
-        <f>November!O29</f>
-        <v>8</v>
+        <f>November!L29</f>
+        <v>12</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I27" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18646,16 +18463,16 @@
         <v>20</v>
       </c>
       <c r="F28" s="13">
-        <f>November!O30</f>
-        <v>8</v>
+        <f>November!L31</f>
+        <v>12</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I28" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18680,21 +18497,21 @@
         <f>October!U32</f>
         <v>20</v>
       </c>
-      <c r="F29" s="13">
-        <f>November!O31</f>
-        <v>8</v>
-      </c>
-      <c r="G29" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="F29" s="13" t="e">
+        <f>November!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
-      </c>
-      <c r="I29" s="30" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="30" t="e">
         <f t="shared" si="2"/>
-        <v>Eligible</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18716,16 +18533,16 @@
         <v>20</v>
       </c>
       <c r="F30" s="13">
-        <f>November!O32</f>
-        <v>8</v>
+        <f>November!L32</f>
+        <v>12</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I30" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18751,16 +18568,16 @@
         <v>20</v>
       </c>
       <c r="F31" s="13">
-        <f>November!O33</f>
-        <v>8</v>
+        <f>November!L33</f>
+        <v>12</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I31" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18786,16 +18603,16 @@
         <v>20</v>
       </c>
       <c r="F32" s="13">
-        <f>November!O34</f>
-        <v>8</v>
+        <f>November!L34</f>
+        <v>12</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I32" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18821,16 +18638,16 @@
         <v>12</v>
       </c>
       <c r="F33" s="13">
-        <f>November!O35</f>
-        <v>8</v>
+        <f>November!L35</f>
+        <v>12</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I33" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18856,16 +18673,16 @@
         <v>12</v>
       </c>
       <c r="F34" s="13">
-        <f>November!O36</f>
-        <v>8</v>
+        <f>November!L36</f>
+        <v>12</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H34" s="29">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I34" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18891,16 +18708,16 @@
         <v>20</v>
       </c>
       <c r="F35" s="13">
-        <f>November!O37</f>
-        <v>8</v>
+        <f>November!L37</f>
+        <v>12</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I35" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18926,7 +18743,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="13">
-        <f>November!O38</f>
+        <f>November!L38</f>
         <v>0</v>
       </c>
       <c r="G36" s="14">
@@ -18935,11 +18752,11 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I36" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>Eligible</v>
+        <v>Not Eligible</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18961,16 +18778,16 @@
         <v>20</v>
       </c>
       <c r="F37" s="13">
-        <f>November!O39</f>
-        <v>8</v>
+        <f>November!L39</f>
+        <v>12</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I37" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18996,16 +18813,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="13">
-        <f>November!O40</f>
-        <v>8</v>
+        <f>November!L40</f>
+        <v>12</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="I38" s="30" t="str">
         <f t="shared" si="2"/>
@@ -19031,16 +18848,16 @@
         <v>20</v>
       </c>
       <c r="F39" s="13">
-        <f>November!O41</f>
-        <v>8</v>
+        <f>November!L41</f>
+        <v>12</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" si="1"/>
-        <v>114.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="I39" s="30" t="str">
         <f t="shared" si="2"/>
@@ -19060,10 +18877,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="153" t="s">
+      <c r="F42" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="153"/>
+      <c r="G42" s="161"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -19078,14 +18895,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -19095,6 +18904,14 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="254">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -2151,6 +2151,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2187,9 +2197,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2201,28 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2275,11 +2260,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2304,15 +2313,6 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2631,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2689,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2747,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2805,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,246 +4132,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="121" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="121" t="s">
+      <c r="D4" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="122" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="121" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="121" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="123" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
@@ -4401,10 +4401,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4446,16 +4446,16 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="124" t="s">
+      <c r="AA10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="118" t="s">
+      <c r="AB10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="110"/>
-      <c r="C11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4481,12 +4481,12 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="119"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="123"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="110"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4533,35 +4533,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="111"/>
-      <c r="C13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="117"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="121"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -7913,26 +7913,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="126" t="s">
+      <c r="I78" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="126"/>
-      <c r="N78" s="126"/>
-      <c r="O78" s="126"/>
-      <c r="P78" s="126"/>
-      <c r="Q78" s="126"/>
-      <c r="R78" s="126"/>
-      <c r="S78" s="126"/>
-      <c r="T78" s="126"/>
-      <c r="U78" s="126"/>
-      <c r="V78" s="126"/>
-      <c r="W78" s="126"/>
-      <c r="X78" s="126"/>
-      <c r="Y78" s="126"/>
-      <c r="Z78" s="126"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="109"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
+      <c r="R78" s="109"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="109"/>
+      <c r="U78" s="109"/>
+      <c r="V78" s="109"/>
+      <c r="W78" s="109"/>
+      <c r="X78" s="109"/>
+      <c r="Y78" s="109"/>
+      <c r="Z78" s="109"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8022,15 +8022,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8042,6 +8033,15 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8078,103 +8078,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="132" t="e">
+      <c r="C3" s="149" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="129" t="str">
+      <c r="C4" s="146" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="133">
+      <c r="I4" s="150">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="129" t="str">
+      <c r="C5" s="146" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8191,92 +8191,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="134" t="str">
+      <c r="H6" s="129" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="135" t="str">
+      <c r="C7" s="130" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="136">
+      <c r="G7" s="131">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="147" t="s">
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="150"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="145"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="146"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12267,6 +12267,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12277,12 +12283,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12394,46 +12394,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12466,22 +12466,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12502,22 +12502,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -12538,62 +12538,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -12612,10 +12612,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12634,16 +12634,16 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="124" t="s">
+      <c r="O10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="118" t="s">
+      <c r="P10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -12660,12 +12660,12 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="119"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="123"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12691,24 +12691,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="111"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="117"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="121"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13620,21 +13620,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="126" t="s">
+      <c r="C43" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="126"/>
+      <c r="D43" s="109"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="126" t="s">
+      <c r="H43" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13654,12 +13654,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13669,11 +13668,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13713,58 +13713,58 @@
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
     </row>
     <row r="3" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -13798,28 +13798,28 @@
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
       <c r="U4" s="88"/>
       <c r="V4" s="88"/>
       <c r="W4" s="88"/>
@@ -13835,28 +13835,28 @@
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
       <c r="W5" s="89"/>
@@ -13872,80 +13872,80 @@
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
@@ -13992,10 +13992,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="152" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14028,16 +14028,16 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="152" t="s">
+      <c r="U11" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="152" t="s">
+      <c r="V11" s="151" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
-      <c r="B12" s="151"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14058,12 +14058,12 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
     </row>
     <row r="13" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="151"/>
-      <c r="B13" s="151"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14103,28 +14103,28 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
-      <c r="B14" s="151"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
       <c r="U14" s="9"/>
       <c r="V14" s="108"/>
     </row>
@@ -15436,10 +15436,10 @@
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="126"/>
+      <c r="D44" s="109"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -15509,11 +15509,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:T4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:T14"/>
@@ -15523,11 +15523,11 @@
     <mergeCell ref="E6:T6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:T8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -15544,8 +15544,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15568,40 +15568,40 @@
     <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -15631,19 +15631,19 @@
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
       <c r="N4" s="88"/>
@@ -15664,19 +15664,19 @@
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="110"/>
+      <c r="E5" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="89"/>
@@ -15697,71 +15697,71 @@
     <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
     </row>
     <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
     </row>
     <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -15777,10 +15777,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="116" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -15795,21 +15795,23 @@
       <c r="F10" s="24">
         <v>20</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="24">
+        <v>27</v>
+      </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="124" t="s">
+      <c r="L10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="118" t="s">
+      <c r="M10" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -15822,17 +15824,19 @@
       <c r="F11" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>253</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="119"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="123"/>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -15845,14 +15849,16 @@
       <c r="F12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="21">
         <f>SUM(D12:K12)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M12" s="27">
         <f>(L12/$L$12)*100</f>
@@ -15860,21 +15866,21 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="111"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="117"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="121"/>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -15895,14 +15901,16 @@
       <c r="F14" s="75">
         <v>4</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>4</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="21">
-        <f>SUM(D14:K14)</f>
-        <v>12</v>
+        <f t="shared" ref="L14:L52" si="0">SUM(D14:K14)</f>
+        <v>16</v>
       </c>
       <c r="M14" s="22">
         <f>(L14/$L$12)*$M$12</f>
@@ -15928,17 +15936,19 @@
       <c r="F15" s="75">
         <v>4</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13">
+        <v>4</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="21">
-        <f>SUM(D15:K15)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" ref="M15:M76" si="0">(L15/$L$12)*$M$12</f>
+        <f t="shared" ref="M15:M76" si="1">(L15/$L$12)*$M$12</f>
         <v>100</v>
       </c>
     </row>
@@ -15961,17 +15971,19 @@
       <c r="F16" s="75">
         <v>4</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13">
+        <v>4</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="21">
-        <f>SUM(D16:K16)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -15994,17 +16006,19 @@
       <c r="F17" s="75">
         <v>4</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>4</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="21">
-        <f>SUM(D17:K17)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16027,17 +16041,19 @@
       <c r="F18" s="75">
         <v>4</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>4</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="21">
-        <f>SUM(D18:K18)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16060,18 +16076,20 @@
       <c r="F19" s="75">
         <v>0</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>4</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="21">
-        <f>SUM(D19:K19)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="M19" s="22">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16093,17 +16111,19 @@
       <c r="F20" s="75">
         <v>4</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13">
+        <v>4</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="21">
-        <f>SUM(D20:K20)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16126,18 +16146,20 @@
       <c r="F21" s="75">
         <v>4</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="21">
-        <f>SUM(D21:K21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16159,17 +16181,19 @@
       <c r="F22" s="75">
         <v>4</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13">
+        <v>4</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="21">
-        <f>SUM(D22:K22)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M22" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16192,17 +16216,19 @@
       <c r="F23" s="75">
         <v>4</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="13">
+        <v>4</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="21">
-        <f>SUM(D23:K23)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M23" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16225,17 +16251,19 @@
       <c r="F24" s="75">
         <v>4</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13">
+        <v>4</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="21">
-        <f>SUM(D24:K24)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16258,17 +16286,19 @@
       <c r="F25" s="75">
         <v>4</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>4</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="21">
-        <f>SUM(D25:K25)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16291,17 +16321,19 @@
       <c r="F26" s="75">
         <v>4</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="21">
-        <f>SUM(D26:K26)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M26" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16324,18 +16356,20 @@
       <c r="F27" s="75">
         <v>4</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="21">
-        <f>SUM(D27:K27)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16357,17 +16391,19 @@
       <c r="F28" s="75">
         <v>4</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13">
+        <v>4</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="21">
-        <f>SUM(D28:K28)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M28" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16390,18 +16426,20 @@
       <c r="F29" s="75">
         <v>4</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="21">
-        <f>SUM(D29:K29)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16421,17 +16459,19 @@
       <c r="F30" s="75">
         <v>4</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13">
+        <v>4</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="21">
-        <f>SUM(D30:K30)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" ref="M30" si="1">(L30/$L$12)*$M$12</f>
+        <f t="shared" ref="M30" si="2">(L30/$L$12)*$M$12</f>
         <v>100</v>
       </c>
     </row>
@@ -16454,17 +16494,19 @@
       <c r="F31" s="75">
         <v>4</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13">
+        <v>4</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="21">
-        <f>SUM(D31:K31)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16487,18 +16529,20 @@
       <c r="F32" s="75">
         <v>4</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="21">
-        <f>SUM(D32:K32)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M32" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16520,17 +16564,19 @@
       <c r="F33" s="75">
         <v>4</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="13">
+        <v>4</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="21">
-        <f>SUM(D33:K33)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M33" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16553,17 +16599,19 @@
       <c r="F34" s="75">
         <v>4</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13">
+        <v>4</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="21">
-        <f>SUM(D34:K34)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M34" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16586,17 +16634,19 @@
       <c r="F35" s="75">
         <v>4</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="13">
+        <v>4</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="21">
-        <f>SUM(D35:K35)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16619,17 +16669,19 @@
       <c r="F36" s="75">
         <v>4</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="13">
+        <v>4</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="21">
-        <f>SUM(D36:K36)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16652,17 +16704,19 @@
       <c r="F37" s="75">
         <v>4</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13">
+        <v>4</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="21">
-        <f>SUM(D37:K37)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16685,17 +16739,19 @@
       <c r="F38" s="75">
         <v>0</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="21">
-        <f>SUM(D38:K38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16718,17 +16774,19 @@
       <c r="F39" s="75">
         <v>4</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="13">
+        <v>4</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="21">
-        <f>SUM(D39:K39)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M39" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16751,17 +16809,19 @@
       <c r="F40" s="75">
         <v>4</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="13">
+        <v>4</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="21">
-        <f>SUM(D40:K40)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M40" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16784,17 +16844,19 @@
       <c r="F41" s="75">
         <v>4</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="13">
+        <v>4</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="21">
-        <f>SUM(D41:K41)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="M41" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -16813,11 +16875,11 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="21">
-        <f>SUM(D42:K42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16836,11 +16898,11 @@
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="21">
-        <f>SUM(D43:K43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16859,11 +16921,11 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="21">
-        <f>SUM(D44:K44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16882,11 +16944,11 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="21">
-        <f>SUM(D45:K45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16905,11 +16967,11 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="21">
-        <f>SUM(D46:K46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16928,11 +16990,11 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="21">
-        <f>SUM(D47:K47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16951,11 +17013,11 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="21">
-        <f>SUM(D48:K48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16974,11 +17036,11 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="21">
-        <f>SUM(D49:K49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16997,11 +17059,11 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="21">
-        <f>SUM(D50:K50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17020,11 +17082,11 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="21">
-        <f>SUM(D51:K51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17043,11 +17105,11 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="21">
-        <f>SUM(D52:K52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M52" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17066,11 +17128,11 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="21">
-        <f t="shared" ref="L53:L76" si="2">SUM(D53:K53)</f>
+        <f t="shared" ref="L53:L76" si="3">SUM(D53:K53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17089,11 +17151,11 @@
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M54" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17112,11 +17174,11 @@
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M55" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17135,11 +17197,11 @@
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M56" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17158,11 +17220,11 @@
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17181,11 +17243,11 @@
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M58" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17204,11 +17266,11 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M59" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17227,11 +17289,11 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M60" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17250,11 +17312,11 @@
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M61" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17273,11 +17335,11 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M62" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17296,11 +17358,11 @@
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M63" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17319,11 +17381,11 @@
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M64" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17342,11 +17404,11 @@
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M65" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17365,11 +17427,11 @@
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M66" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17388,11 +17450,11 @@
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17411,11 +17473,11 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M68" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17434,11 +17496,11 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M69" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17457,11 +17519,11 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M70" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17480,11 +17542,11 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17503,11 +17565,11 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M72" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17526,11 +17588,11 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M73" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17549,11 +17611,11 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M74" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17572,11 +17634,11 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M75" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17595,11 +17657,11 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M76" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17614,18 +17676,18 @@
       <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C78" s="126" t="s">
+      <c r="C78" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="126"/>
+      <c r="D78" s="109"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="126" t="s">
+      <c r="J78" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="126"/>
+      <c r="K78" s="109"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -17651,6 +17713,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E7:Q7"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="C8:D8"/>
@@ -17660,17 +17733,6 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:Q6"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -17712,26 +17774,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="C1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17739,13 +17801,13 @@
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -17753,13 +17815,13 @@
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -17767,13 +17829,13 @@
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -17781,13 +17843,13 @@
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -17795,13 +17857,13 @@
       <c r="C7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -17814,51 +17876,51 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="160" t="str">
+      <c r="D9" s="163" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="160" t="str">
+      <c r="E9" s="163" t="str">
         <f>October!E5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="160" t="str">
+      <c r="F9" s="163" t="str">
         <f>November!E5</f>
         <v>November 2023</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="158" t="s">
+      <c r="H9" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="162" t="s">
+      <c r="I9" s="154" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="163"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="90" t="s">
         <v>10</v>
       </c>
@@ -17872,17 +17934,17 @@
       </c>
       <c r="F11" s="91">
         <f>November!L12</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G11" s="92">
         <f t="shared" ref="G11:G39" si="0">SUM(D11:F11)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11" s="93">
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="163"/>
+      <c r="I11" s="155"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -17904,11 +17966,11 @@
       </c>
       <c r="F12" s="13">
         <f>November!L14</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" ref="H12:H39" si="1">(G12/$G$11)*100</f>
@@ -17939,11 +18001,11 @@
       </c>
       <c r="F13" s="13">
         <f>November!L15</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
@@ -17974,11 +18036,11 @@
       </c>
       <c r="F14" s="13">
         <f>November!L16</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" si="1"/>
@@ -18009,11 +18071,11 @@
       </c>
       <c r="F15" s="13">
         <f>November!L17</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
@@ -18044,15 +18106,15 @@
       </c>
       <c r="F16" s="13">
         <f>November!L18</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="1"/>
-        <v>77.777777777777786</v>
+        <v>80</v>
       </c>
       <c r="I16" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18079,15 +18141,15 @@
       </c>
       <c r="F17" s="13">
         <f>November!L19</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17" s="29">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="I17" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18114,11 +18176,11 @@
       </c>
       <c r="F18" s="13">
         <f>November!L20</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="1"/>
@@ -18157,7 +18219,7 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I19" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18184,11 +18246,11 @@
       </c>
       <c r="F20" s="13">
         <f>November!L22</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" si="1"/>
@@ -18219,11 +18281,11 @@
       </c>
       <c r="F21" s="13">
         <f>November!L23</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="1"/>
@@ -18254,11 +18316,11 @@
       </c>
       <c r="F22" s="13">
         <f>November!L24</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="1"/>
@@ -18289,11 +18351,11 @@
       </c>
       <c r="F23" s="13">
         <f>November!L25</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="1"/>
@@ -18324,11 +18386,11 @@
       </c>
       <c r="F24" s="13">
         <f>November!L26</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H24" s="29">
         <f t="shared" si="1"/>
@@ -18367,7 +18429,7 @@
       </c>
       <c r="H25" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I25" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18394,11 +18456,11 @@
       </c>
       <c r="F26" s="13">
         <f>November!L28</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H26" s="29">
         <f t="shared" si="1"/>
@@ -18437,7 +18499,7 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I27" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18464,11 +18526,11 @@
       </c>
       <c r="F28" s="13">
         <f>November!L31</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" si="1"/>
@@ -18542,7 +18604,7 @@
       </c>
       <c r="H30" s="29">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I30" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18569,11 +18631,11 @@
       </c>
       <c r="F31" s="13">
         <f>November!L33</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H31" s="29">
         <f t="shared" si="1"/>
@@ -18604,11 +18666,11 @@
       </c>
       <c r="F32" s="13">
         <f>November!L34</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H32" s="29">
         <f t="shared" si="1"/>
@@ -18639,15 +18701,15 @@
       </c>
       <c r="F33" s="13">
         <f>November!L35</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33" s="29">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>70</v>
       </c>
       <c r="I33" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18674,15 +18736,15 @@
       </c>
       <c r="F34" s="13">
         <f>November!L36</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H34" s="29">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>70</v>
       </c>
       <c r="I34" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18709,11 +18771,11 @@
       </c>
       <c r="F35" s="13">
         <f>November!L37</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="1"/>
@@ -18752,7 +18814,7 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>60</v>
       </c>
       <c r="I36" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18779,11 +18841,11 @@
       </c>
       <c r="F37" s="13">
         <f>November!L39</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" si="1"/>
@@ -18814,15 +18876,15 @@
       </c>
       <c r="F38" s="13">
         <f>November!L40</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="I38" s="30" t="str">
         <f t="shared" si="2"/>
@@ -18849,11 +18911,11 @@
       </c>
       <c r="F39" s="13">
         <f>November!L41</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" si="1"/>
@@ -18877,10 +18939,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="161" t="s">
+      <c r="F42" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="161"/>
+      <c r="G42" s="153"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -18895,6 +18957,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -18904,14 +18974,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -17,16 +17,18 @@
     <sheet name="September" sheetId="24" r:id="rId3"/>
     <sheet name="October" sheetId="23" r:id="rId4"/>
     <sheet name="November" sheetId="22" r:id="rId5"/>
-    <sheet name="Overall Attendance" sheetId="11" r:id="rId6"/>
+    <sheet name="December" sheetId="26" r:id="rId6"/>
+    <sheet name="Overall Attendance" sheetId="11" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">August!$B$1:$AB$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">December!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">November!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">October!$A$1:$V$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Overall Attendance'!$A$1:$I$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Overall Attendance'!$A$1:$I$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">September!$A$1:$P$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -221,6 +223,65 @@
     <author>Windows User</author>
   </authors>
   <commentList>
+    <comment ref="B33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Included in list against vacant seat Elec of reciprocal
+instructions of Dean </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+intered in dual form on 24/10/2019</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
@@ -275,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="256">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -1041,6 +1102,12 @@
   </si>
   <si>
     <t>09:00 AM-01:00 PM</t>
+  </si>
+  <si>
+    <t>Circuit Analysis (Th)</t>
+  </si>
+  <si>
+    <t>December 2023</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2151,14 +2218,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2197,6 +2261,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2208,6 +2275,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2260,35 +2349,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2313,6 +2378,15 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2573,7 +2647,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2705,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2763,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2821,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,6 +2871,64 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="152400" y="1"/>
+          <a:ext cx="698500" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>342901</xdr:rowOff>
     </xdr:to>
@@ -2805,7 +2937,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,130 +4264,130 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="D1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111" t="s">
+      <c r="D4" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="130"/>
+      <c r="F4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="125" t="s">
         <v>179</v>
       </c>
@@ -4283,72 +4415,72 @@
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111" t="s">
+      <c r="E6" s="130"/>
+      <c r="F6" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="126" t="s">
         <v>177</v>
       </c>
@@ -4401,10 +4533,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="115" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4449,13 +4581,13 @@
       <c r="AA10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="122" t="s">
+      <c r="AB10" s="121" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="114"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4482,11 +4614,11 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="128"/>
-      <c r="AB11" s="123"/>
+      <c r="AB11" s="122"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="114"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4533,35 +4665,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="115"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="121"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="120"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -7913,26 +8045,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="109" t="s">
+      <c r="I78" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="109"/>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="109"/>
-      <c r="V78" s="109"/>
-      <c r="W78" s="109"/>
-      <c r="X78" s="109"/>
-      <c r="Y78" s="109"/>
-      <c r="Z78" s="109"/>
+      <c r="J78" s="129"/>
+      <c r="K78" s="129"/>
+      <c r="L78" s="129"/>
+      <c r="M78" s="129"/>
+      <c r="N78" s="129"/>
+      <c r="O78" s="129"/>
+      <c r="P78" s="129"/>
+      <c r="Q78" s="129"/>
+      <c r="R78" s="129"/>
+      <c r="S78" s="129"/>
+      <c r="T78" s="129"/>
+      <c r="U78" s="129"/>
+      <c r="V78" s="129"/>
+      <c r="W78" s="129"/>
+      <c r="X78" s="129"/>
+      <c r="Y78" s="129"/>
+      <c r="Z78" s="129"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8022,6 +8154,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8033,15 +8174,6 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8078,103 +8210,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="149" t="e">
+      <c r="C3" s="135" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="146" t="str">
+      <c r="C4" s="132" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="150">
+      <c r="I4" s="136">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="146" t="str">
+      <c r="C5" s="132" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8191,92 +8323,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="129" t="str">
+      <c r="H6" s="137" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="130" t="str">
+      <c r="C7" s="138" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="131">
+      <c r="G7" s="139">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="140" t="s">
+      <c r="C9" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="142" t="s">
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="145"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="153"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="135"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="141"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12267,12 +12399,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12283,6 +12409,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12394,46 +12526,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="C1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12466,22 +12598,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12502,10 +12634,10 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="125" t="s">
         <v>244</v>
       </c>
@@ -12538,50 +12670,50 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
@@ -12612,10 +12744,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12637,13 +12769,13 @@
       <c r="O10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="121" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -12661,11 +12793,11 @@
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
       <c r="O11" s="128"/>
-      <c r="P11" s="123"/>
+      <c r="P11" s="122"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12691,24 +12823,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="120"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13620,21 +13752,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="109"/>
+      <c r="D43" s="129"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="109" t="s">
+      <c r="H43" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13654,11 +13786,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13668,12 +13801,11 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13713,58 +13845,58 @@
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="C1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
     </row>
     <row r="2" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
     </row>
     <row r="3" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -13798,28 +13930,28 @@
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
       <c r="U4" s="88"/>
       <c r="V4" s="88"/>
       <c r="W4" s="88"/>
@@ -13835,10 +13967,10 @@
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="125" t="s">
         <v>184</v>
       </c>
@@ -13872,62 +14004,62 @@
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
@@ -13992,10 +14124,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="154" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14028,16 +14160,16 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="151" t="s">
+      <c r="U11" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="151" t="s">
+      <c r="V11" s="155" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14058,12 +14190,12 @@
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
     </row>
     <row r="13" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14103,28 +14235,28 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
       <c r="U14" s="9"/>
       <c r="V14" s="108"/>
     </row>
@@ -15436,10 +15568,10 @@
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="109"/>
+      <c r="D44" s="129"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -15509,11 +15641,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:T8"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:T14"/>
@@ -15523,11 +15655,11 @@
     <mergeCell ref="E6:T6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:T7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:T4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -15544,7 +15676,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -15568,40 +15700,40 @@
     <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
+      <c r="C1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -15631,19 +15763,19 @@
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
       <c r="N4" s="88"/>
@@ -15664,10 +15796,10 @@
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="110"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="125" t="s">
         <v>251</v>
       </c>
@@ -15697,56 +15829,56 @@
     <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
     </row>
     <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="130"/>
+      <c r="E7" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
     </row>
     <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="126" t="s">
         <v>248</v>
       </c>
@@ -15777,10 +15909,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="115" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -15805,13 +15937,13 @@
       <c r="L10" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="122" t="s">
+      <c r="M10" s="121" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -15832,11 +15964,11 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="128"/>
-      <c r="M11" s="123"/>
+      <c r="M11" s="122"/>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -15866,21 +15998,21 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="121"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -17676,18 +17808,18 @@
       <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C78" s="109" t="s">
+      <c r="C78" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="109"/>
+      <c r="D78" s="129"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="109" t="s">
+      <c r="J78" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="109"/>
+      <c r="K78" s="129"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -17713,17 +17845,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:Q6"/>
-    <mergeCell ref="E7:Q7"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="C8:D8"/>
@@ -17733,6 +17854,17 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -17749,6 +17881,2034 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.69921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.09765625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.296875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.09765625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+    </row>
+    <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="111"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+    </row>
+    <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="111"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="130"/>
+      <c r="E3" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+    </row>
+    <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="130"/>
+      <c r="E5" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+    </row>
+    <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+    </row>
+    <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="130"/>
+      <c r="E7" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+    </row>
+    <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="130"/>
+      <c r="E8" s="126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+    </row>
+    <row r="9" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+    </row>
+    <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="113"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="122"/>
+    </row>
+    <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="113"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21">
+        <f>SUM(D12:K12)</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="27">
+        <f>(L12/$L$12)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
+    </row>
+    <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="75">
+        <v>4</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="21">
+        <f t="shared" ref="L14:L52" si="0">SUM(D14:K14)</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="22">
+        <f>(L14/$L$12)*$M$12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="75">
+        <v>4</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" ref="M15:M76" si="1">(L15/$L$12)*$M$12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="75">
+        <v>4</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="75">
+        <v>4</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>5</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="75">
+        <v>0</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>6</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="75">
+        <v>0</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>7</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="75">
+        <v>4</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>8</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>9</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="75">
+        <v>4</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>10</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="75">
+        <v>4</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <v>11</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="75">
+        <v>4</v>
+      </c>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <v>12</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="75">
+        <v>4</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <v>13</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="75">
+        <v>0</v>
+      </c>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>14</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="75">
+        <v>4</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <v>15</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="75">
+        <v>4</v>
+      </c>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>16</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="75">
+        <v>4</v>
+      </c>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="75">
+        <v>4</v>
+      </c>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <v>17</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="75">
+        <v>4</v>
+      </c>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <v>19</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="75">
+        <v>4</v>
+      </c>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>20</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="75">
+        <v>4</v>
+      </c>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <v>21</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="75">
+        <v>4</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <v>22</v>
+      </c>
+      <c r="B35" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="75">
+        <v>0</v>
+      </c>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <v>23</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="75">
+        <v>4</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <v>24</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="75">
+        <v>4</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8">
+        <v>25</v>
+      </c>
+      <c r="B38" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="75">
+        <v>4</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M38" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8">
+        <v>26</v>
+      </c>
+      <c r="B39" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="75">
+        <v>4</v>
+      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8">
+        <v>27</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="75">
+        <v>4</v>
+      </c>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
+        <v>28</v>
+      </c>
+      <c r="B41" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="75">
+        <v>4</v>
+      </c>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8">
+        <v>29</v>
+      </c>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8">
+        <v>30</v>
+      </c>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8">
+        <v>31</v>
+      </c>
+      <c r="B44" s="95"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8">
+        <v>32</v>
+      </c>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8">
+        <v>33</v>
+      </c>
+      <c r="B46" s="95"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8">
+        <v>34</v>
+      </c>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8">
+        <v>35</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8">
+        <v>36</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8">
+        <v>37</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8">
+        <v>38</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8">
+        <v>39</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8">
+        <v>40</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="21">
+        <f t="shared" ref="L53:L76" si="2">SUM(D53:K53)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8">
+        <v>41</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8">
+        <v>42</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8">
+        <v>43</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8">
+        <v>44</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8">
+        <v>45</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8">
+        <v>46</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8">
+        <v>47</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8">
+        <v>48</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8">
+        <v>49</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8">
+        <v>50</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8">
+        <v>51</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8">
+        <v>52</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="8">
+        <v>53</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8">
+        <v>54</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8">
+        <v>55</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8">
+        <v>56</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="8">
+        <v>57</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="8">
+        <v>58</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8">
+        <v>59</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="8">
+        <v>60</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="8">
+        <v>61</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="8">
+        <v>62</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8">
+        <v>63</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C78" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="129"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="129"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="33" max="15" man="1"/>
+    <brk id="76" max="15" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I47"/>
@@ -17774,26 +19934,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="C1" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17801,13 +19961,13 @@
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -17815,13 +19975,13 @@
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -17829,13 +19989,13 @@
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -17843,13 +20003,13 @@
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -17903,7 +20063,7 @@
       <c r="H9" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="165" t="s">
         <v>21</v>
       </c>
     </row>
@@ -17916,7 +20076,7 @@
       <c r="F10" s="160"/>
       <c r="G10" s="160"/>
       <c r="H10" s="162"/>
-      <c r="I10" s="155"/>
+      <c r="I10" s="166"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="158"/>
@@ -17944,7 +20104,7 @@
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="155"/>
+      <c r="I11" s="166"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -18939,10 +21099,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="153" t="s">
+      <c r="F42" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="153"/>
+      <c r="G42" s="164"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -18957,14 +21117,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -18974,6 +21126,14 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/BME_Circuit_Analysis_Attenance_Second_Semester_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">December!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">November!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">October!$A$1:$V$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Overall Attendance'!$A$1:$I$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Overall Attendance'!$A$1:$J$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">September!$A$1:$P$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="256">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -1936,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2225,6 +2225,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2261,9 +2274,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2275,28 +2285,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,11 +2337,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2378,15 +2390,6 @@
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2647,7 +2650,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2708,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2766,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2824,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2882,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2940,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4264,246 +4267,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
+      <c r="D1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="114"/>
+      <c r="F3" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="130" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="124" t="s">
+      <c r="D4" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="125" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="130" t="s">
+      <c r="D7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="124" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="126" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
@@ -4533,10 +4536,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="120" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -4578,16 +4581,16 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="127" t="s">
+      <c r="AA10" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="121" t="s">
+      <c r="AB10" s="126" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="113"/>
-      <c r="C11" s="116"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4613,12 +4616,12 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="122"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="127"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="113"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
@@ -4665,35 +4668,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="114"/>
-      <c r="C13" s="117"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="120"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="125"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="74">
@@ -8045,26 +8048,26 @@
       <c r="E78" s="40"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="129" t="s">
+      <c r="I78" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="129"/>
-      <c r="K78" s="129"/>
-      <c r="L78" s="129"/>
-      <c r="M78" s="129"/>
-      <c r="N78" s="129"/>
-      <c r="O78" s="129"/>
-      <c r="P78" s="129"/>
-      <c r="Q78" s="129"/>
-      <c r="R78" s="129"/>
-      <c r="S78" s="129"/>
-      <c r="T78" s="129"/>
-      <c r="U78" s="129"/>
-      <c r="V78" s="129"/>
-      <c r="W78" s="129"/>
-      <c r="X78" s="129"/>
-      <c r="Y78" s="129"/>
-      <c r="Z78" s="129"/>
+      <c r="J78" s="113"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
+      <c r="N78" s="113"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="113"/>
+      <c r="Q78" s="113"/>
+      <c r="R78" s="113"/>
+      <c r="S78" s="113"/>
+      <c r="T78" s="113"/>
+      <c r="U78" s="113"/>
+      <c r="V78" s="113"/>
+      <c r="W78" s="113"/>
+      <c r="X78" s="113"/>
+      <c r="Y78" s="113"/>
+      <c r="Z78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="38"/>
@@ -8154,15 +8157,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I78:Z78"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -8174,6 +8168,15 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="I78:Z78"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C77:E82">
@@ -8210,103 +8213,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="135" t="e">
+      <c r="C3" s="153" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="132" t="str">
+      <c r="C4" s="150" t="str">
         <f>'[1]Mid Term Award'!$C$4</f>
         <v>6th</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
       <c r="G4" s="41"/>
       <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="136">
+      <c r="I4" s="154">
         <f>'[1]Mid Term Award'!$E$4</f>
         <v>2018</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="132" t="str">
+      <c r="C5" s="150" t="str">
         <f>'[1]Mid Term Award'!$C$5</f>
         <v>Linear Control System</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -8323,92 +8326,92 @@
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="137" t="str">
+      <c r="H6" s="133" t="str">
         <f>'[1]Mid Term Award'!$E$6</f>
         <v>EE-324</v>
       </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="138" t="str">
+      <c r="C7" s="134" t="str">
         <f>'[1]Mid Term Award'!$C$7</f>
         <v>Dr. Wzir Muhammad</v>
       </c>
-      <c r="D7" s="138"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="139">
+      <c r="G7" s="135">
         <f>'[1]Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="148" t="s">
+      <c r="C9" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="150" t="s">
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="153"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="149"/>
       <c r="M9" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="143"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="149"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="53">
         <v>1</v>
       </c>
@@ -12399,6 +12402,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -12409,12 +12418,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="M14:M89 M91:M99">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
@@ -12505,7 +12508,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -12526,46 +12529,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
+      <c r="C1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -12598,22 +12601,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="114"/>
+      <c r="E4" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
@@ -12634,22 +12637,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
       <c r="Q5" s="89"/>
@@ -12670,62 +12673,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="114"/>
+      <c r="E6" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -12744,10 +12747,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="120" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -12766,16 +12769,16 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="121" t="s">
+      <c r="P10" s="126" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -12792,12 +12795,12 @@
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="122"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="127"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -12823,24 +12826,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="120"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="31">
@@ -13752,21 +13755,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="129"/>
+      <c r="D43" s="113"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="129" t="s">
+      <c r="H43" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -13786,12 +13789,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -13801,11 +13803,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -13822,8 +13825,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:T8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13845,58 +13848,58 @@
     <row r="1" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
+      <c r="C1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
     </row>
     <row r="3" spans="1:31" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -13930,28 +13933,28 @@
     <row r="4" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="114"/>
+      <c r="E4" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
       <c r="U4" s="88"/>
       <c r="V4" s="88"/>
       <c r="W4" s="88"/>
@@ -13967,28 +13970,28 @@
     <row r="5" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
       <c r="W5" s="89"/>
@@ -14004,80 +14007,80 @@
     <row r="6" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="114"/>
+      <c r="E6" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
@@ -14124,10 +14127,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="156" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -14168,8 +14171,8 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
@@ -14194,8 +14197,8 @@
       <c r="V12" s="155"/>
     </row>
     <row r="13" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
@@ -14235,28 +14238,28 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
       <c r="U14" s="9"/>
       <c r="V14" s="108"/>
     </row>
@@ -15243,7 +15246,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -15265,11 +15268,11 @@
       <c r="T36" s="13"/>
       <c r="U36" s="107">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="V36" s="108">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15289,7 +15292,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
@@ -15311,11 +15314,11 @@
       <c r="T37" s="13"/>
       <c r="U37" s="107">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="V37" s="108">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15568,10 +15571,10 @@
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C44" s="129" t="s">
+      <c r="C44" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="129"/>
+      <c r="D44" s="113"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -15641,11 +15644,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:T4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:T14"/>
@@ -15655,11 +15658,11 @@
     <mergeCell ref="E6:T6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:T7"/>
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:T8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -15676,8 +15679,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15700,40 +15703,40 @@
     <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="C1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -15763,19 +15766,19 @@
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="114"/>
+      <c r="E4" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
       <c r="N4" s="88"/>
@@ -15796,19 +15799,19 @@
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="89"/>
@@ -15829,71 +15832,71 @@
     <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="114"/>
+      <c r="E6" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
     </row>
     <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -15909,10 +15912,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="120" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -15934,16 +15937,16 @@
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="127" t="s">
+      <c r="L10" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="126" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -15963,12 +15966,12 @@
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="122"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="127"/>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -15998,21 +16001,21 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="125"/>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -16863,7 +16866,7 @@
         <v>234</v>
       </c>
       <c r="D38" s="75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="75">
         <v>0</v>
@@ -16872,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -16880,11 +16883,11 @@
       <c r="K38" s="13"/>
       <c r="L38" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M38" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17808,18 +17811,18 @@
       <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C78" s="129" t="s">
+      <c r="C78" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="129"/>
+      <c r="D78" s="113"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="129" t="s">
+      <c r="J78" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="129"/>
+      <c r="K78" s="113"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -17845,6 +17848,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E7:Q7"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="C8:D8"/>
@@ -17854,17 +17868,6 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:Q6"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -17884,7 +17887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -17908,40 +17911,40 @@
     <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="110"/>
       <c r="B1" s="110"/>
-      <c r="C1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="C1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="111"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="88" t="s">
         <v>185</v>
       </c>
@@ -17971,19 +17974,19 @@
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="114"/>
+      <c r="E4" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
       <c r="N4" s="88"/>
@@ -18004,19 +18007,19 @@
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="110"/>
       <c r="B5" s="110"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="125" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="89"/>
@@ -18037,71 +18040,71 @@
     <row r="6" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="110"/>
       <c r="B6" s="110"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="114"/>
+      <c r="E6" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
     </row>
     <row r="7" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="110"/>
       <c r="B7" s="110"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="110"/>
       <c r="B8" s="110"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="110"/>
@@ -18117,10 +18120,10 @@
       <c r="K9" s="110"/>
     </row>
     <row r="10" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="120" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -18136,16 +18139,16 @@
       <c r="I10" s="24"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="127" t="s">
+      <c r="L10" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="126" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
@@ -18165,12 +18168,12 @@
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="122"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="127"/>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
@@ -18194,21 +18197,21 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="125"/>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -19836,18 +19839,18 @@
       <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C78" s="129" t="s">
+      <c r="C78" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="129"/>
+      <c r="D78" s="113"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="129" t="s">
+      <c r="J78" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="129"/>
+      <c r="K78" s="113"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -19873,11 +19876,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:K4"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="C6:D6"/>
@@ -19886,13 +19891,11 @@
     <mergeCell ref="E7:Q7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D13:M13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -19911,10 +19914,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -19924,163 +19927,175 @@
     <col min="3" max="3" width="28.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.8984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.09765625" style="4"/>
+    <col min="6" max="7" width="10.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+    </row>
+    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="156" t="s">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="156" t="s">
+      <c r="B9" s="160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="163" t="str">
+      <c r="D9" s="167" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="163" t="str">
+      <c r="E9" s="167" t="str">
         <f>October!E5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="163" t="str">
+      <c r="F9" s="167" t="str">
         <f>November!E5</f>
         <v>November 2023</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="161" t="s">
+      <c r="I9" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="J9" s="158" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="162"/>
+    <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="161"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
       <c r="I10" s="166"/>
-    </row>
-    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
+      <c r="J10" s="159"/>
+    </row>
+    <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="90" t="s">
         <v>10</v>
       </c>
@@ -20096,17 +20111,20 @@
         <f>November!L12</f>
         <v>16</v>
       </c>
-      <c r="G11" s="92">
-        <f t="shared" ref="G11:G39" si="0">SUM(D11:F11)</f>
+      <c r="G11" s="91">
+        <v>4</v>
+      </c>
+      <c r="H11" s="92">
+        <f t="shared" ref="H11:H39" si="0">SUM(D11:F11)</f>
         <v>40</v>
       </c>
-      <c r="H11" s="93">
-        <f>(G11/$G$11)*100</f>
+      <c r="I11" s="93">
+        <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="166"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="159"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -20128,20 +20146,23 @@
         <f>November!L14</f>
         <v>16</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H12" s="29">
-        <f t="shared" ref="H12:H39" si="1">(G12/$G$11)*100</f>
+      <c r="I12" s="29">
+        <f t="shared" ref="I12:I39" si="1">(H12/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I12" s="30" t="str">
-        <f>IF(AND(H12&gt;=75),"Eligible","Not Eligible")</f>
+      <c r="J12" s="30" t="str">
+        <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2</v>
       </c>
@@ -20163,20 +20184,23 @@
         <f>November!L15</f>
         <v>16</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H13" s="29">
+      <c r="I13" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I13" s="30" t="str">
-        <f>IF(AND(H13&gt;=75),"Eligible","Not Eligible")</f>
+      <c r="J13" s="30" t="str">
+        <f>IF(AND(I13&gt;=75),"Eligible","Not Eligible")</f>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>3</v>
       </c>
@@ -20198,20 +20222,23 @@
         <f>November!L16</f>
         <v>16</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="29">
+      <c r="I14" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I14" s="30" t="str">
-        <f t="shared" ref="I14:I39" si="2">IF(AND(H14&gt;=75),"Eligible","Not Eligible")</f>
+      <c r="J14" s="30" t="str">
+        <f t="shared" ref="J14:J39" si="2">IF(AND(I14&gt;=75),"Eligible","Not Eligible")</f>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -20233,20 +20260,23 @@
         <f>November!L17</f>
         <v>16</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H15" s="29">
+      <c r="I15" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="J15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -20268,20 +20298,23 @@
         <f>November!L18</f>
         <v>16</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
+        <v>4</v>
+      </c>
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H16" s="29">
+      <c r="I16" s="29">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="J16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>6</v>
       </c>
@@ -20303,20 +20336,23 @@
         <f>November!L19</f>
         <v>12</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H17" s="29">
+      <c r="I17" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="J17" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>7</v>
       </c>
@@ -20338,20 +20374,23 @@
         <f>November!L20</f>
         <v>16</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
+        <v>4</v>
+      </c>
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H18" s="29">
+      <c r="I18" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="J18" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>8</v>
       </c>
@@ -20373,20 +20412,23 @@
         <f>November!L21</f>
         <v>12</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
+        <v>4</v>
+      </c>
+      <c r="H19" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H19" s="29">
+      <c r="I19" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="J19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>9</v>
       </c>
@@ -20408,20 +20450,23 @@
         <f>November!L22</f>
         <v>16</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H20" s="29">
+      <c r="I20" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="J20" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>10</v>
       </c>
@@ -20443,20 +20488,23 @@
         <f>November!L23</f>
         <v>16</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
+        <v>4</v>
+      </c>
+      <c r="H21" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H21" s="29">
+      <c r="I21" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="J21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>11</v>
       </c>
@@ -20478,20 +20526,23 @@
         <f>November!L24</f>
         <v>16</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
+        <v>4</v>
+      </c>
+      <c r="H22" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H22" s="29">
+      <c r="I22" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="J22" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>12</v>
       </c>
@@ -20513,20 +20564,23 @@
         <f>November!L25</f>
         <v>16</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
+        <v>4</v>
+      </c>
+      <c r="H23" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H23" s="29">
+      <c r="I23" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="J23" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>13</v>
       </c>
@@ -20548,20 +20602,23 @@
         <f>November!L26</f>
         <v>16</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
+        <v>4</v>
+      </c>
+      <c r="H24" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H24" s="29">
+      <c r="I24" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="J24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>14</v>
       </c>
@@ -20583,20 +20640,23 @@
         <f>November!L27</f>
         <v>12</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
+        <v>4</v>
+      </c>
+      <c r="H25" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H25" s="29">
+      <c r="I25" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="J25" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>15</v>
       </c>
@@ -20618,20 +20678,23 @@
         <f>November!L28</f>
         <v>16</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
+      <c r="H26" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H26" s="29">
+      <c r="I26" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="J26" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>16</v>
       </c>
@@ -20653,20 +20716,23 @@
         <f>November!L29</f>
         <v>12</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H27" s="29">
+      <c r="I27" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="J27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>17</v>
       </c>
@@ -20688,20 +20754,23 @@
         <f>November!L31</f>
         <v>16</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
+        <v>4</v>
+      </c>
+      <c r="H28" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H28" s="29">
+      <c r="I28" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="J28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>18</v>
       </c>
@@ -20719,24 +20788,26 @@
         <f>October!U32</f>
         <v>20</v>
       </c>
-      <c r="F29" s="13" t="e">
-        <f>November!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="29" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="30" t="e">
+      <c r="F29" s="13">
+        <v>16</v>
+      </c>
+      <c r="G29" s="13">
+        <v>4</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J29" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>19</v>
       </c>
@@ -20758,20 +20829,23 @@
         <f>November!L32</f>
         <v>12</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
+        <v>4</v>
+      </c>
+      <c r="H30" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H30" s="29">
+      <c r="I30" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I30" s="30" t="str">
+      <c r="J30" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>20</v>
       </c>
@@ -20793,20 +20867,23 @@
         <f>November!L33</f>
         <v>16</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
+        <v>4</v>
+      </c>
+      <c r="H31" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H31" s="29">
+      <c r="I31" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I31" s="30" t="str">
+      <c r="J31" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>21</v>
       </c>
@@ -20828,20 +20905,23 @@
         <f>November!L34</f>
         <v>16</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
+        <v>4</v>
+      </c>
+      <c r="H32" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H32" s="29">
+      <c r="I32" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I32" s="30" t="str">
+      <c r="J32" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>22</v>
       </c>
@@ -20857,26 +20937,29 @@
       </c>
       <c r="E33" s="13">
         <f>October!U36</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33" s="13">
         <f>November!L35</f>
         <v>16</v>
       </c>
-      <c r="G33" s="14">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H33" s="29">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="I33" s="30" t="str">
+      <c r="G33" s="13">
+        <v>4</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J33" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>23</v>
       </c>
@@ -20892,26 +20975,29 @@
       </c>
       <c r="E34" s="13">
         <f>October!U37</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F34" s="13">
         <f>November!L36</f>
         <v>16</v>
       </c>
-      <c r="G34" s="14">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H34" s="29">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="I34" s="30" t="str">
+      <c r="G34" s="13">
+        <v>4</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I34" s="29">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J34" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>24</v>
       </c>
@@ -20933,20 +21019,23 @@
         <f>November!L37</f>
         <v>16</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
+        <v>4</v>
+      </c>
+      <c r="H35" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H35" s="29">
+      <c r="I35" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I35" s="30" t="str">
+      <c r="J35" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>25</v>
       </c>
@@ -20966,22 +21055,25 @@
       </c>
       <c r="F36" s="13">
         <f>November!L38</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H36" s="29">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="I36" s="30" t="str">
+        <v>8</v>
+      </c>
+      <c r="G36" s="13">
+        <v>4</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="29">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J36" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>Not Eligible</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>26</v>
       </c>
@@ -21003,20 +21095,23 @@
         <f>November!L39</f>
         <v>16</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
+        <v>4</v>
+      </c>
+      <c r="H37" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H37" s="29">
+      <c r="I37" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I37" s="30" t="str">
+      <c r="J37" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>27</v>
       </c>
@@ -21038,20 +21133,23 @@
         <f>November!L40</f>
         <v>16</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
+        <v>4</v>
+      </c>
+      <c r="H38" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H38" s="29">
+      <c r="I38" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I38" s="30" t="str">
+      <c r="J38" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>28</v>
       </c>
@@ -21073,67 +21171,76 @@
         <f>November!L41</f>
         <v>16</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
+        <v>4</v>
+      </c>
+      <c r="H39" s="14">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H39" s="29">
+      <c r="I39" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I39" s="30" t="str">
+      <c r="J39" s="30" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C41" s="10"/>
       <c r="E41" s="3"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C42" s="83"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="164" t="s">
+      <c r="F42" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="164"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
+  <mergeCells count="18">
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
